--- a/Code/Results/Cases/Case_4_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,125 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2">
+        <v>34.97544585046637</v>
+      </c>
+      <c r="C2">
+        <v>24.0151124531838</v>
+      </c>
+      <c r="D2">
+        <v>7.107153214262962</v>
+      </c>
+      <c r="E2">
+        <v>7.555278224156899</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.091395023856319</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>6.154654417611112</v>
+      </c>
+      <c r="M2">
+        <v>18.41781879428243</v>
+      </c>
+      <c r="N2">
+        <v>21.19823889729548</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>32.73774006339305</v>
+      </c>
+      <c r="C3">
+        <v>22.16936138637271</v>
+      </c>
+      <c r="D3">
+        <v>6.5647725944048</v>
+      </c>
+      <c r="E3">
+        <v>7.136048479116437</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.112557734854525</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>6.094786938618006</v>
+      </c>
+      <c r="M3">
+        <v>17.5599352264822</v>
+      </c>
+      <c r="N3">
+        <v>20.83858610779329</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>31.34470822947109</v>
+      </c>
+      <c r="C4">
+        <v>20.99956658216052</v>
+      </c>
+      <c r="D4">
+        <v>6.241020295331444</v>
+      </c>
+      <c r="E4">
+        <v>6.874227140014684</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.125608209401843</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>6.062628692668003</v>
+      </c>
+      <c r="M4">
+        <v>17.03941032303621</v>
+      </c>
+      <c r="N4">
+        <v>20.62451271541267</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>30.77206598879678</v>
+      </c>
+      <c r="C5">
+        <v>20.51310045564944</v>
+      </c>
+      <c r="D5">
+        <v>6.121480525578284</v>
+      </c>
+      <c r="E5">
+        <v>6.766291209495459</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.130953879480235</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>6.050614726423512</v>
+      </c>
+      <c r="M5">
+        <v>16.82880154542833</v>
+      </c>
+      <c r="N5">
+        <v>20.53881904633822</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>30.67667830380889</v>
+      </c>
+      <c r="C6">
+        <v>20.43171839777018</v>
+      </c>
+      <c r="D6">
+        <v>6.101557210632907</v>
+      </c>
+      <c r="E6">
+        <v>6.748290383597491</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.131843537621686</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>6.048683892388864</v>
+      </c>
+      <c r="M6">
+        <v>16.79392112701256</v>
+      </c>
+      <c r="N6">
+        <v>20.52467876269073</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>31.33700556369832</v>
+      </c>
+      <c r="C7">
+        <v>20.99304615997845</v>
+      </c>
+      <c r="D7">
+        <v>6.239413082886947</v>
+      </c>
+      <c r="E7">
+        <v>6.872776653119312</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.125680175454703</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>6.062462333955029</v>
+      </c>
+      <c r="M7">
+        <v>17.03656388463979</v>
+      </c>
+      <c r="N7">
+        <v>20.62335096166113</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>34.20766306918766</v>
+      </c>
+      <c r="C8">
+        <v>23.38587911472408</v>
+      </c>
+      <c r="D8">
+        <v>6.922543087123656</v>
+      </c>
+      <c r="E8">
+        <v>7.411551840673701</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.098688846610073</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>6.133015120048265</v>
+      </c>
+      <c r="M8">
+        <v>18.12067102724143</v>
+      </c>
+      <c r="N8">
+        <v>21.07272681588158</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>39.74193314333676</v>
+      </c>
+      <c r="C9">
+        <v>27.82269389171964</v>
+      </c>
+      <c r="D9">
+        <v>8.218626491352859</v>
+      </c>
+      <c r="E9">
+        <v>8.44142958335015</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.045479383811824</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>6.311334596073767</v>
+      </c>
+      <c r="M9">
+        <v>20.30361645190862</v>
+      </c>
+      <c r="N9">
+        <v>22.01625212032301</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>44.02222902062711</v>
+      </c>
+      <c r="C10">
+        <v>30.98913477444349</v>
+      </c>
+      <c r="D10">
+        <v>9.13646289774289</v>
+      </c>
+      <c r="E10">
+        <v>9.198248817245279</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.004926048322849</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>6.472615397202391</v>
+      </c>
+      <c r="M10">
+        <v>22.23596436935552</v>
+      </c>
+      <c r="N10">
+        <v>22.76328968849321</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>45.97326822164202</v>
+      </c>
+      <c r="C11">
+        <v>32.42933552563079</v>
+      </c>
+      <c r="D11">
+        <v>9.552129831226805</v>
+      </c>
+      <c r="E11">
+        <v>9.548148084972819</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1.985757516637494</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>6.554336705774537</v>
+      </c>
+      <c r="M11">
+        <v>23.24661153314381</v>
+      </c>
+      <c r="N11">
+        <v>23.11991737513088</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>46.71550431607206</v>
+      </c>
+      <c r="C12">
+        <v>32.97700803610435</v>
+      </c>
+      <c r="D12">
+        <v>9.709907638009982</v>
+      </c>
+      <c r="E12">
+        <v>9.682127673846788</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.978348476678458</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>6.586686101807433</v>
+      </c>
+      <c r="M12">
+        <v>23.63012754610866</v>
+      </c>
+      <c r="N12">
+        <v>23.2579806711444</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>46.55544224567837</v>
+      </c>
+      <c r="C13">
+        <v>32.85890933290451</v>
+      </c>
+      <c r="D13">
+        <v>9.675898353646033</v>
+      </c>
+      <c r="E13">
+        <v>9.653193687712591</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1.979951737390704</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>6.579652782069605</v>
+      </c>
+      <c r="M13">
+        <v>23.54746598458708</v>
+      </c>
+      <c r="N13">
+        <v>23.22810038185082</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>46.0342440314889</v>
+      </c>
+      <c r="C14">
+        <v>32.47433073135701</v>
+      </c>
+      <c r="D14">
+        <v>9.565098428902381</v>
+      </c>
+      <c r="E14">
+        <v>9.559136314262396</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1.985151303860619</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>6.556968609111028</v>
+      </c>
+      <c r="M14">
+        <v>23.27813731985185</v>
+      </c>
+      <c r="N14">
+        <v>23.13121132225913</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>45.71554171837246</v>
+      </c>
+      <c r="C15">
+        <v>32.23914662637763</v>
+      </c>
+      <c r="D15">
+        <v>9.497301343261661</v>
+      </c>
+      <c r="E15">
+        <v>9.501740117326209</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1.98831497501354</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>6.543263679318917</v>
+      </c>
+      <c r="M15">
+        <v>23.1133225138171</v>
+      </c>
+      <c r="N15">
+        <v>23.07227795973731</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>43.89502611121331</v>
+      </c>
+      <c r="C16">
+        <v>30.89519304091201</v>
+      </c>
+      <c r="D16">
+        <v>9.109311217808138</v>
+      </c>
+      <c r="E16">
+        <v>9.175547653834446</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.006160578750918</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>6.467458783828245</v>
+      </c>
+      <c r="M16">
+        <v>22.16993837907453</v>
+      </c>
+      <c r="N16">
+        <v>22.74036832504192</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>42.78095595655199</v>
+      </c>
+      <c r="C17">
+        <v>30.07210946933229</v>
+      </c>
+      <c r="D17">
+        <v>8.871215186735508</v>
+      </c>
+      <c r="E17">
+        <v>8.977290755893147</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.016894659928496</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>6.42322099958271</v>
+      </c>
+      <c r="M17">
+        <v>21.59092239290469</v>
+      </c>
+      <c r="N17">
+        <v>22.54142555653392</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>42.14032430809655</v>
+      </c>
+      <c r="C18">
+        <v>29.59849828906182</v>
+      </c>
+      <c r="D18">
+        <v>8.734046046614759</v>
+      </c>
+      <c r="E18">
+        <v>8.86373665445735</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.023004256471059</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>6.398548045682655</v>
+      </c>
+      <c r="M18">
+        <v>21.25733667942156</v>
+      </c>
+      <c r="N18">
+        <v>22.42853491315623</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>41.92337096133449</v>
+      </c>
+      <c r="C19">
+        <v>29.43804815841801</v>
+      </c>
+      <c r="D19">
+        <v>8.687548093353001</v>
+      </c>
+      <c r="E19">
+        <v>8.825354233046779</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2.025063011446014</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>6.390321452171993</v>
+      </c>
+      <c r="M19">
+        <v>21.14425749722752</v>
+      </c>
+      <c r="N19">
+        <v>22.39056052499361</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>42.89951710963958</v>
+      </c>
+      <c r="C20">
+        <v>30.15973367393237</v>
+      </c>
+      <c r="D20">
+        <v>8.896579900896228</v>
+      </c>
+      <c r="E20">
+        <v>8.998341890135668</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2.015758954255081</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>6.42784906424064</v>
+      </c>
+      <c r="M20">
+        <v>21.6526073440802</v>
+      </c>
+      <c r="N20">
+        <v>22.56244062909895</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>46.18721212235559</v>
+      </c>
+      <c r="C21">
+        <v>32.58720603371979</v>
+      </c>
+      <c r="D21">
+        <v>9.597626803210838</v>
+      </c>
+      <c r="E21">
+        <v>9.586716549329196</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1.983628591236243</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>6.563591499264742</v>
+      </c>
+      <c r="M21">
+        <v>23.35720967098963</v>
+      </c>
+      <c r="N21">
+        <v>23.15958234674531</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>48.35796019973945</v>
+      </c>
+      <c r="C22">
+        <v>34.18879772369875</v>
+      </c>
+      <c r="D22">
+        <v>10.05843972495553</v>
+      </c>
+      <c r="E22">
+        <v>9.980383121165609</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.96171957166617</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>6.660630196109116</v>
+      </c>
+      <c r="M22">
+        <v>24.47703085831855</v>
+      </c>
+      <c r="N22">
+        <v>23.56787033341665</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>47.19615279127254</v>
+      </c>
+      <c r="C23">
+        <v>33.33163213693832</v>
+      </c>
+      <c r="D23">
+        <v>9.811985202670952</v>
+      </c>
+      <c r="E23">
+        <v>9.769152145336916</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.97351573307851</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>6.607993062845151</v>
+      </c>
+      <c r="M23">
+        <v>23.8782114200878</v>
+      </c>
+      <c r="N23">
+        <v>23.3480551417537</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>42.84591624344876</v>
+      </c>
+      <c r="C24">
+        <v>30.12012021166163</v>
+      </c>
+      <c r="D24">
+        <v>8.885113445505702</v>
+      </c>
+      <c r="E24">
+        <v>8.988823391492897</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2.01627259525411</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>6.425754363536986</v>
+      </c>
+      <c r="M24">
+        <v>21.62472186825354</v>
+      </c>
+      <c r="N24">
+        <v>22.55293513428304</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>38.22925949745154</v>
+      </c>
+      <c r="C25">
+        <v>26.64425615450823</v>
+      </c>
+      <c r="D25">
+        <v>7.875593421978484</v>
+      </c>
+      <c r="E25">
+        <v>8.164271112837019</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.060019399028714</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>6.258276689672186</v>
+      </c>
+      <c r="M25">
+        <v>19.70540217813701</v>
+      </c>
+      <c r="N25">
+        <v>21.75293274162513</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34.97544585046637</v>
+        <v>23.67604496635707</v>
       </c>
       <c r="C2">
-        <v>24.0151124531838</v>
+        <v>8.473635147705764</v>
       </c>
       <c r="D2">
-        <v>7.107153214262962</v>
+        <v>8.768115113373536</v>
       </c>
       <c r="E2">
-        <v>7.555278224156899</v>
+        <v>7.43437305739431</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.091395023856319</v>
+        <v>2.212342149028565</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.520809704073023</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.17755965622715</v>
       </c>
       <c r="L2">
-        <v>6.154654417611112</v>
+        <v>9.052014382104685</v>
       </c>
       <c r="M2">
-        <v>18.41781879428243</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>21.19823889729548</v>
+        <v>24.75727440596257</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>32.73774006339305</v>
+        <v>22.77015410967505</v>
       </c>
       <c r="C3">
-        <v>22.16936138637271</v>
+        <v>7.985142212565853</v>
       </c>
       <c r="D3">
-        <v>6.5647725944048</v>
+        <v>8.586727615669927</v>
       </c>
       <c r="E3">
-        <v>7.136048479116437</v>
+        <v>7.419914316356184</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.112557734854525</v>
+        <v>2.22480972681213</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.537500847090581</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.49361426415299</v>
       </c>
       <c r="L3">
-        <v>6.094786938618006</v>
+        <v>8.941770950798951</v>
       </c>
       <c r="M3">
-        <v>17.5599352264822</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>20.83858610779329</v>
+        <v>24.50437965531771</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31.34470822947109</v>
+        <v>22.21685282341696</v>
       </c>
       <c r="C4">
-        <v>20.99956658216052</v>
+        <v>7.678941168159217</v>
       </c>
       <c r="D4">
-        <v>6.241020295331444</v>
+        <v>8.479855655948985</v>
       </c>
       <c r="E4">
-        <v>6.874227140014684</v>
+        <v>7.414519059502231</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.125608209401843</v>
+        <v>2.232628473343554</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.548117406381534</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.07787631501044</v>
       </c>
       <c r="L4">
-        <v>6.062628692668003</v>
+        <v>8.879268213283822</v>
       </c>
       <c r="M4">
-        <v>17.03941032303621</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>20.62451271541267</v>
+        <v>24.35328944498261</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.77206598879678</v>
+        <v>21.99231751410752</v>
       </c>
       <c r="C5">
-        <v>20.51310045564944</v>
+        <v>7.552676104411296</v>
       </c>
       <c r="D5">
-        <v>6.121480525578284</v>
+        <v>8.43743575358142</v>
       </c>
       <c r="E5">
-        <v>6.766291209495459</v>
+        <v>7.413170627874879</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.130953879480235</v>
+        <v>2.235859113184428</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.552538602417823</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.90965547822341</v>
       </c>
       <c r="L5">
-        <v>6.050614726423512</v>
+        <v>8.855070753801579</v>
       </c>
       <c r="M5">
-        <v>16.82880154542833</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>20.53881904633822</v>
+        <v>24.29273153263244</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>30.67667830380889</v>
+        <v>21.95509695650995</v>
       </c>
       <c r="C6">
-        <v>20.43171839777018</v>
+        <v>7.531623412684044</v>
       </c>
       <c r="D6">
-        <v>6.101557210632907</v>
+        <v>8.430460282884368</v>
       </c>
       <c r="E6">
-        <v>6.748290383597491</v>
+        <v>7.412997344551736</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.131843537621686</v>
+        <v>2.2363983337378</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.553278532681194</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.88179917085292</v>
       </c>
       <c r="L6">
-        <v>6.048683892388864</v>
+        <v>8.851128750979283</v>
       </c>
       <c r="M6">
-        <v>16.79392112701256</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>20.52467876269073</v>
+        <v>24.28273596837684</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31.33700556369832</v>
+        <v>22.21382056287757</v>
       </c>
       <c r="C7">
-        <v>20.99304615997845</v>
+        <v>7.677244186396075</v>
       </c>
       <c r="D7">
-        <v>6.239413082886947</v>
+        <v>8.4792789859597</v>
       </c>
       <c r="E7">
-        <v>6.872776653119312</v>
+        <v>7.41449746466685</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.125680175454703</v>
+        <v>2.232671858791042</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.548176645144133</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.07560259141776</v>
       </c>
       <c r="L7">
-        <v>6.062462333955029</v>
+        <v>8.878936765187291</v>
       </c>
       <c r="M7">
-        <v>17.03656388463979</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>20.62335096166113</v>
+        <v>24.35246869119996</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>34.20766306918766</v>
+        <v>23.36320028380145</v>
       </c>
       <c r="C8">
-        <v>23.38587911472408</v>
+        <v>8.306546571261807</v>
       </c>
       <c r="D8">
-        <v>6.922543087123656</v>
+        <v>8.704637936221173</v>
       </c>
       <c r="E8">
-        <v>7.411551840673701</v>
+        <v>7.428649182009167</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.098688846610073</v>
+        <v>2.21660908735324</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.526489828078393</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.94093774484241</v>
       </c>
       <c r="L8">
-        <v>6.133015120048265</v>
+        <v>9.012906708310915</v>
       </c>
       <c r="M8">
-        <v>18.12067102724143</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>21.07272681588158</v>
+        <v>24.66918144199261</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>39.74193314333676</v>
+        <v>25.63331702246381</v>
       </c>
       <c r="C9">
-        <v>27.82269389171964</v>
+        <v>9.488677369880548</v>
       </c>
       <c r="D9">
-        <v>8.218626491352859</v>
+        <v>9.182430028190634</v>
       </c>
       <c r="E9">
-        <v>8.44142958335015</v>
+        <v>7.485249134753675</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.045479383811824</v>
+        <v>2.186243203713314</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.486771782119646</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.66655864219614</v>
       </c>
       <c r="L9">
-        <v>6.311334596073767</v>
+        <v>9.318263805502919</v>
       </c>
       <c r="M9">
-        <v>20.30361645190862</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>22.01625212032301</v>
+        <v>25.32556163673255</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>44.02222902062711</v>
+        <v>27.30522550351327</v>
       </c>
       <c r="C10">
-        <v>30.98913477444349</v>
+        <v>10.32495019097744</v>
       </c>
       <c r="D10">
-        <v>9.13646289774289</v>
+        <v>9.55590492152543</v>
       </c>
       <c r="E10">
-        <v>9.198248817245279</v>
+        <v>7.546235101419789</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.004926048322849</v>
+        <v>2.164365744907379</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.459136028596454</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.94809942031225</v>
       </c>
       <c r="L10">
-        <v>6.472615397202391</v>
+        <v>9.570866792867681</v>
       </c>
       <c r="M10">
-        <v>22.23596436935552</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>22.76328968849321</v>
+        <v>25.83269862631112</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>45.97326822164202</v>
+        <v>28.06659952506012</v>
       </c>
       <c r="C11">
-        <v>32.42933552563079</v>
+        <v>10.73694587216794</v>
       </c>
       <c r="D11">
-        <v>9.552129831226805</v>
+        <v>9.730951047130922</v>
       </c>
       <c r="E11">
-        <v>9.548148084972819</v>
+        <v>7.578636029023257</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.985757516637494</v>
+        <v>2.154440027090814</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.446858213564879</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.53411502429873</v>
       </c>
       <c r="L11">
-        <v>6.554336705774537</v>
+        <v>9.692499977636238</v>
       </c>
       <c r="M11">
-        <v>23.24661153314381</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>23.11991737513088</v>
+        <v>26.06972496453237</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>46.71550431607206</v>
+        <v>28.35510297737592</v>
       </c>
       <c r="C12">
-        <v>32.97700803610435</v>
+        <v>10.89287612289724</v>
       </c>
       <c r="D12">
-        <v>9.709907638009982</v>
+        <v>9.798012454884301</v>
       </c>
       <c r="E12">
-        <v>9.682127673846788</v>
+        <v>7.591616530695608</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.978348476678458</v>
+        <v>2.150678731284477</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.442247408826471</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.75652490850593</v>
       </c>
       <c r="L12">
-        <v>6.586686101807433</v>
+        <v>9.739583249004397</v>
       </c>
       <c r="M12">
-        <v>23.63012754610866</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>23.2579806711444</v>
+        <v>26.16048137365499</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>46.55544224567837</v>
+        <v>28.2929583673365</v>
       </c>
       <c r="C13">
-        <v>32.85890933290451</v>
+        <v>10.85936500966547</v>
       </c>
       <c r="D13">
-        <v>9.675898353646033</v>
+        <v>9.783534405686103</v>
       </c>
       <c r="E13">
-        <v>9.653193687712591</v>
+        <v>7.588788621506075</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.979951737390704</v>
+        <v>2.151489023587133</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.443238777317276</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.70860121534056</v>
       </c>
       <c r="L13">
-        <v>6.579652782069605</v>
+        <v>9.729396496537007</v>
       </c>
       <c r="M13">
-        <v>23.54746598458708</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>23.22810038185082</v>
+        <v>26.1408892938957</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>46.0342440314889</v>
+        <v>28.09033046024583</v>
       </c>
       <c r="C14">
-        <v>32.47433073135701</v>
+        <v>10.74980670729957</v>
       </c>
       <c r="D14">
-        <v>9.565098428902381</v>
+        <v>9.736452446347174</v>
       </c>
       <c r="E14">
-        <v>9.559136314262396</v>
+        <v>7.579689441529212</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.985151303860619</v>
+        <v>2.154130676137707</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.446478130141477</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.55240227868047</v>
       </c>
       <c r="L14">
-        <v>6.556968609111028</v>
+        <v>9.696352675467089</v>
       </c>
       <c r="M14">
-        <v>23.27813731985185</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>23.13121132225913</v>
+        <v>26.07717094248973</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>45.71554171837246</v>
+        <v>27.96624275324738</v>
       </c>
       <c r="C15">
-        <v>32.23914662637763</v>
+        <v>10.68248752223725</v>
       </c>
       <c r="D15">
-        <v>9.497301343261661</v>
+        <v>9.707715600847614</v>
       </c>
       <c r="E15">
-        <v>9.501740117326209</v>
+        <v>7.574209820472985</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.98831497501354</v>
+        <v>2.155748213801955</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.448467229417266</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.45679360846915</v>
       </c>
       <c r="L15">
-        <v>6.543263679318917</v>
+        <v>9.67624751216346</v>
       </c>
       <c r="M15">
-        <v>23.1133225138171</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>23.07227795973731</v>
+        <v>26.03827473633072</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>43.89502611121331</v>
+        <v>27.25548874742937</v>
       </c>
       <c r="C16">
-        <v>30.89519304091201</v>
+        <v>10.30038636016812</v>
       </c>
       <c r="D16">
-        <v>9.109311217808138</v>
+        <v>9.544571549445921</v>
       </c>
       <c r="E16">
-        <v>9.175547653834446</v>
+        <v>7.544214772896305</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.006160578750918</v>
+        <v>2.16501441527311</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.459944015957234</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.90986708414821</v>
       </c>
       <c r="L16">
-        <v>6.467458783828245</v>
+        <v>9.563057687418516</v>
       </c>
       <c r="M16">
-        <v>22.16993837907453</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>22.74036832504192</v>
+        <v>25.81734304650444</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>42.78095595655199</v>
+        <v>26.8197011612384</v>
       </c>
       <c r="C17">
-        <v>30.07210946933229</v>
+        <v>10.08440310137702</v>
       </c>
       <c r="D17">
-        <v>8.871215186735508</v>
+        <v>9.445827753474031</v>
       </c>
       <c r="E17">
-        <v>8.977290755893147</v>
+        <v>7.527034732678316</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.016894659928496</v>
+        <v>2.170701390782893</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.467057378480159</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.57515029819387</v>
       </c>
       <c r="L17">
-        <v>6.42322099958271</v>
+        <v>9.49537868580747</v>
       </c>
       <c r="M17">
-        <v>21.59092239290469</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>22.54142555653392</v>
+        <v>25.683488340021</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>42.14032430809655</v>
+        <v>26.56911600894868</v>
       </c>
       <c r="C18">
-        <v>29.59849828906182</v>
+        <v>9.959561948998546</v>
       </c>
       <c r="D18">
-        <v>8.734046046614759</v>
+        <v>9.389514954186758</v>
       </c>
       <c r="E18">
-        <v>8.86373665445735</v>
+        <v>7.517588967931387</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.023004256471059</v>
+        <v>2.173975312340272</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.471176695589293</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.38290901779011</v>
       </c>
       <c r="L18">
-        <v>6.398548045682655</v>
+        <v>9.457080407017314</v>
       </c>
       <c r="M18">
-        <v>21.25733667942156</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>22.42853491315623</v>
+        <v>25.60708798849972</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>41.92337096133449</v>
+        <v>26.4842829011797</v>
       </c>
       <c r="C19">
-        <v>29.43804815841801</v>
+        <v>9.917185477097728</v>
       </c>
       <c r="D19">
-        <v>8.687548093353001</v>
+        <v>9.370530349339559</v>
       </c>
       <c r="E19">
-        <v>8.825354233046779</v>
+        <v>7.514464451059897</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.025063011446014</v>
+        <v>2.175084490261447</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.472576324630836</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.31786631989269</v>
       </c>
       <c r="L19">
-        <v>6.390321452171993</v>
+        <v>9.444219705893824</v>
       </c>
       <c r="M19">
-        <v>21.14425749722752</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>22.39056052499361</v>
+        <v>25.58131887035515</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>42.89951710963958</v>
+        <v>26.86608413192049</v>
       </c>
       <c r="C20">
-        <v>30.15973367393237</v>
+        <v>10.10745784631613</v>
       </c>
       <c r="D20">
-        <v>8.896579900896228</v>
+        <v>9.456289102653805</v>
       </c>
       <c r="E20">
-        <v>8.998341890135668</v>
+        <v>7.528818196085569</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.015758954255081</v>
+        <v>2.170095743816179</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.466297287197144</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.61075232297129</v>
       </c>
       <c r="L20">
-        <v>6.42784906424064</v>
+        <v>9.502517762874445</v>
       </c>
       <c r="M20">
-        <v>21.6526073440802</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>22.56244062909895</v>
+        <v>25.69767580631154</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>46.18721212235559</v>
+        <v>28.14984118105803</v>
       </c>
       <c r="C21">
-        <v>32.58720603371979</v>
+        <v>10.78203042139952</v>
       </c>
       <c r="D21">
-        <v>9.597626803210838</v>
+        <v>9.750260176605799</v>
       </c>
       <c r="E21">
-        <v>9.586716549329196</v>
+        <v>7.582342444677013</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.983628591236243</v>
+        <v>2.153354886348302</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.445525639255197</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.59826739772142</v>
       </c>
       <c r="L21">
-        <v>6.563591499264742</v>
+        <v>9.70603016986548</v>
       </c>
       <c r="M21">
-        <v>23.35720967098963</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>23.15958234674531</v>
+        <v>26.09585864066657</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>48.35796019973945</v>
+        <v>28.99002932777194</v>
       </c>
       <c r="C22">
-        <v>34.18879772369875</v>
+        <v>11.23297709986911</v>
       </c>
       <c r="D22">
-        <v>10.05843972495553</v>
+        <v>9.946932281670223</v>
       </c>
       <c r="E22">
-        <v>9.980383121165609</v>
+        <v>7.621490365697175</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.96171957166617</v>
+        <v>2.142394687900369</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.432172789717583</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.24664053582887</v>
       </c>
       <c r="L22">
-        <v>6.660630196109116</v>
+        <v>9.845036608144261</v>
       </c>
       <c r="M22">
-        <v>24.47703085831855</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>23.56787033341665</v>
+        <v>26.36197486165856</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>47.19615279127254</v>
+        <v>28.54145508653378</v>
       </c>
       <c r="C23">
-        <v>33.33163213693832</v>
+        <v>10.99312017092099</v>
       </c>
       <c r="D23">
-        <v>9.811985202670952</v>
+        <v>9.841533719219397</v>
       </c>
       <c r="E23">
-        <v>9.769152145336916</v>
+        <v>7.600200272703718</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.97351573307851</v>
+        <v>2.14824847403511</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.439280413902133</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.90028430774196</v>
       </c>
       <c r="L23">
-        <v>6.607993062845151</v>
+        <v>9.770275854510242</v>
       </c>
       <c r="M23">
-        <v>23.8782114200878</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>23.3480551417537</v>
+        <v>26.21937153258754</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>42.84591624344876</v>
+        <v>26.84511453562009</v>
       </c>
       <c r="C24">
-        <v>30.12012021166163</v>
+        <v>10.09703688752829</v>
       </c>
       <c r="D24">
-        <v>8.885113445505702</v>
+        <v>9.451558107756671</v>
       </c>
       <c r="E24">
-        <v>8.988823391492897</v>
+        <v>7.528010552019169</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.01627259525411</v>
+        <v>2.170369542619376</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.466640831524478</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.59465605390917</v>
       </c>
       <c r="L24">
-        <v>6.425754363536986</v>
+        <v>9.499288286273476</v>
       </c>
       <c r="M24">
-        <v>21.62472186825354</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>22.55293513428304</v>
+        <v>25.69125993225328</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>38.22925949745154</v>
+        <v>25.01824669382103</v>
       </c>
       <c r="C25">
-        <v>26.64425615450823</v>
+        <v>9.174618244134724</v>
       </c>
       <c r="D25">
-        <v>7.875593421978484</v>
+        <v>9.049295670196885</v>
       </c>
       <c r="E25">
-        <v>8.164271112837019</v>
+        <v>7.466669771840897</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.060019399028714</v>
+        <v>2.194361540942772</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.497232273643429</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.19718419270843</v>
       </c>
       <c r="L25">
-        <v>6.258276689672186</v>
+        <v>9.230870947446498</v>
       </c>
       <c r="M25">
-        <v>19.70540217813701</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>21.75293274162513</v>
+        <v>25.14389356162834</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.67604496635707</v>
+        <v>30.59289261161933</v>
       </c>
       <c r="C2">
-        <v>8.473635147705764</v>
+        <v>8.349247353293682</v>
       </c>
       <c r="D2">
-        <v>8.768115113373536</v>
+        <v>13.29410330362165</v>
       </c>
       <c r="E2">
-        <v>7.43437305739431</v>
+        <v>12.75344722785181</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.212342149028565</v>
+        <v>3.890146777832082</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.520809704073023</v>
+        <v>7.845001912645786</v>
       </c>
       <c r="K2">
-        <v>19.17755965622715</v>
+        <v>25.49035728962296</v>
       </c>
       <c r="L2">
-        <v>9.052014382104685</v>
+        <v>14.60392309422107</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>24.75727440596257</v>
+        <v>31.65524084359587</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.77015410967505</v>
+        <v>30.51139263075643</v>
       </c>
       <c r="C3">
-        <v>7.985142212565853</v>
+        <v>8.252932480579201</v>
       </c>
       <c r="D3">
-        <v>8.586727615669927</v>
+        <v>13.3002580987778</v>
       </c>
       <c r="E3">
-        <v>7.419914316356184</v>
+        <v>12.77764170490774</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.22480972681213</v>
+        <v>3.894418003580121</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.537500847090581</v>
+        <v>7.851691727538383</v>
       </c>
       <c r="K3">
-        <v>18.49361426415299</v>
+        <v>25.43914056227185</v>
       </c>
       <c r="L3">
-        <v>8.941770950798951</v>
+        <v>14.62300235898947</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.50437965531771</v>
+        <v>31.58472876753818</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.21685282341696</v>
+        <v>30.46828476583568</v>
       </c>
       <c r="C4">
-        <v>7.678941168159217</v>
+        <v>8.195789625228258</v>
       </c>
       <c r="D4">
-        <v>8.479855655948985</v>
+        <v>13.30641649061195</v>
       </c>
       <c r="E4">
-        <v>7.414519059502231</v>
+        <v>12.79403516926478</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.232628473343554</v>
+        <v>3.897175179570771</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.548117406381534</v>
+        <v>7.856029908973998</v>
       </c>
       <c r="K4">
-        <v>18.07787631501044</v>
+        <v>25.41331238699426</v>
       </c>
       <c r="L4">
-        <v>8.879268213283822</v>
+        <v>14.636989355413</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>24.35328944498261</v>
+        <v>31.5423533303027</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.99231751410752</v>
+        <v>30.45247087250158</v>
       </c>
       <c r="C5">
-        <v>7.552676104411296</v>
+        <v>8.173030509015131</v>
       </c>
       <c r="D5">
-        <v>8.43743575358142</v>
+        <v>13.30952421520336</v>
       </c>
       <c r="E5">
-        <v>7.413170627874879</v>
+        <v>12.8011026342866</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.235859113184428</v>
+        <v>3.898332738827066</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.552538602417823</v>
+        <v>7.857855935070819</v>
       </c>
       <c r="K5">
-        <v>17.90965547822341</v>
+        <v>25.40420528535899</v>
       </c>
       <c r="L5">
-        <v>8.855070753801579</v>
+        <v>14.64326024447635</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>24.29273153263244</v>
+        <v>31.52531889579169</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.95509695650995</v>
+        <v>30.44995109994986</v>
       </c>
       <c r="C6">
-        <v>7.531623412684044</v>
+        <v>8.169283927378222</v>
       </c>
       <c r="D6">
-        <v>8.430460282884368</v>
+        <v>13.31007636729598</v>
       </c>
       <c r="E6">
-        <v>7.412997344551736</v>
+        <v>12.8022995625762</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.2363983337378</v>
+        <v>3.898527007386584</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.553278532681194</v>
+        <v>7.85816266505507</v>
       </c>
       <c r="K6">
-        <v>17.88179917085292</v>
+        <v>25.40277883248846</v>
       </c>
       <c r="L6">
-        <v>8.851128750979283</v>
+        <v>14.644336001844</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>24.28273596837684</v>
+        <v>31.52250454458248</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.21382056287757</v>
+        <v>30.46806438562832</v>
       </c>
       <c r="C7">
-        <v>7.677244186396075</v>
+        <v>8.195480521086571</v>
       </c>
       <c r="D7">
-        <v>8.4792789859597</v>
+        <v>13.30645598103429</v>
       </c>
       <c r="E7">
-        <v>7.41449746466685</v>
+        <v>12.79412891629992</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.232671858791042</v>
+        <v>3.897190653028492</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.548176645144133</v>
+        <v>7.856054299567106</v>
       </c>
       <c r="K7">
-        <v>18.07560259141776</v>
+        <v>25.41318381788575</v>
       </c>
       <c r="L7">
-        <v>8.878936765187291</v>
+        <v>14.63707161503236</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>24.35246869119996</v>
+        <v>31.54212264755137</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.36320028380145</v>
+        <v>30.56335856562711</v>
       </c>
       <c r="C8">
-        <v>8.306546571261807</v>
+        <v>8.315639572866225</v>
       </c>
       <c r="D8">
-        <v>8.704637936221173</v>
+        <v>13.29573159959577</v>
       </c>
       <c r="E8">
-        <v>7.428649182009167</v>
+        <v>12.76147044072993</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.21660908735324</v>
+        <v>3.891591636161208</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.526489828078393</v>
+        <v>7.847260814778553</v>
       </c>
       <c r="K8">
-        <v>18.94093774484241</v>
+        <v>25.47153495026632</v>
       </c>
       <c r="L8">
-        <v>9.012906708310915</v>
+        <v>14.61002985990626</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>24.66918144199261</v>
+        <v>31.63073916868115</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.63331702246381</v>
+        <v>30.80475322364673</v>
       </c>
       <c r="C9">
-        <v>9.488677369880548</v>
+        <v>8.565927983703615</v>
       </c>
       <c r="D9">
-        <v>9.182430028190634</v>
+        <v>13.29358148648431</v>
       </c>
       <c r="E9">
-        <v>7.485249134753675</v>
+        <v>12.70961884643243</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.186243203713314</v>
+        <v>3.881674027790798</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.486771782119646</v>
+        <v>7.831837804509567</v>
       </c>
       <c r="K9">
-        <v>20.66655864219614</v>
+        <v>25.6302700131874</v>
       </c>
       <c r="L9">
-        <v>9.318263805502919</v>
+        <v>14.57504204964618</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>25.32556163673255</v>
+        <v>31.81168884080631</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.30522550351327</v>
+        <v>31.01457901786749</v>
       </c>
       <c r="C10">
-        <v>10.32495019097744</v>
+        <v>8.757123013593741</v>
       </c>
       <c r="D10">
-        <v>9.55590492152543</v>
+        <v>13.30350488935062</v>
       </c>
       <c r="E10">
-        <v>7.546235101419789</v>
+        <v>12.67894061959297</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.164365744907379</v>
+        <v>3.875026402050967</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.459136028596454</v>
+        <v>7.821604418772258</v>
       </c>
       <c r="K10">
-        <v>21.94809942031225</v>
+        <v>25.77346027375544</v>
       </c>
       <c r="L10">
-        <v>9.570866792867681</v>
+        <v>14.56034810048766</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>25.83269862631112</v>
+        <v>31.94884281180881</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.06659952506012</v>
+        <v>31.11688720729466</v>
       </c>
       <c r="C11">
-        <v>10.73694587216794</v>
+        <v>8.845333323512921</v>
       </c>
       <c r="D11">
-        <v>9.730951047130922</v>
+        <v>13.31051146869408</v>
       </c>
       <c r="E11">
-        <v>7.578636029023257</v>
+        <v>12.66659150745999</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.154440027090814</v>
+        <v>3.872139101084102</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.446858213564879</v>
+        <v>7.817184786613645</v>
       </c>
       <c r="K11">
-        <v>22.53411502429873</v>
+        <v>25.84425041955632</v>
       </c>
       <c r="L11">
-        <v>9.692499977636238</v>
+        <v>14.55605560164532</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>26.06972496453237</v>
+        <v>32.01211428782857</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.35510297737592</v>
+        <v>31.15659533672284</v>
       </c>
       <c r="C12">
-        <v>10.89287612289724</v>
+        <v>8.878883792687716</v>
       </c>
       <c r="D12">
-        <v>9.798012454884301</v>
+        <v>13.31352217568674</v>
       </c>
       <c r="E12">
-        <v>7.591616530695608</v>
+        <v>12.66214595004076</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.150678731284477</v>
+        <v>3.871065275965364</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.442247408826471</v>
+        <v>7.815544864602971</v>
       </c>
       <c r="K12">
-        <v>22.75652490850593</v>
+        <v>25.87185747019494</v>
       </c>
       <c r="L12">
-        <v>9.739583249004397</v>
+        <v>14.55477396796821</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>26.16048137365499</v>
+        <v>32.03619630795483</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.2929583673365</v>
+        <v>31.14800083899879</v>
       </c>
       <c r="C13">
-        <v>10.85936500966547</v>
+        <v>8.871652037005404</v>
       </c>
       <c r="D13">
-        <v>9.783534405686103</v>
+        <v>13.31285788483404</v>
       </c>
       <c r="E13">
-        <v>7.588788621506075</v>
+        <v>12.66309312016163</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.151489023587133</v>
+        <v>3.871295676737103</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.443238777317276</v>
+        <v>7.81589655533458</v>
       </c>
       <c r="K13">
-        <v>22.70860121534056</v>
+        <v>25.86587641148672</v>
       </c>
       <c r="L13">
-        <v>9.729396496537007</v>
+        <v>14.55503470097773</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>26.1408892938957</v>
+        <v>32.03100443151781</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.09033046024583</v>
+        <v>31.12013477323089</v>
       </c>
       <c r="C14">
-        <v>10.74980670729957</v>
+        <v>8.848090765457108</v>
       </c>
       <c r="D14">
-        <v>9.736452446347174</v>
+        <v>13.31075200332467</v>
       </c>
       <c r="E14">
-        <v>7.579689441529212</v>
+        <v>12.6662211449475</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.154130676137707</v>
+        <v>3.872050366114197</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.446478130141477</v>
+        <v>7.817049194937733</v>
       </c>
       <c r="K14">
-        <v>22.55240227868047</v>
+        <v>25.84650570301362</v>
       </c>
       <c r="L14">
-        <v>9.696352675467089</v>
+        <v>14.5559432707184</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>26.07717094248973</v>
+        <v>32.01409309870613</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.96624275324738</v>
+        <v>31.10319122104988</v>
       </c>
       <c r="C15">
-        <v>10.68248752223725</v>
+        <v>8.833677068574865</v>
       </c>
       <c r="D15">
-        <v>9.707715600847614</v>
+        <v>13.30950861142215</v>
       </c>
       <c r="E15">
-        <v>7.574209820472985</v>
+        <v>12.66816719794401</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.155748213801955</v>
+        <v>3.872515175095333</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.448467229417266</v>
+        <v>7.81775960296121</v>
       </c>
       <c r="K15">
-        <v>22.45679360846915</v>
+        <v>25.83474442711702</v>
       </c>
       <c r="L15">
-        <v>9.67624751216346</v>
+        <v>14.55654456951598</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>26.03827473633072</v>
+        <v>32.00375024937125</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.25548874742937</v>
+        <v>31.00802926395442</v>
       </c>
       <c r="C16">
-        <v>10.30038636016812</v>
+        <v>8.75138050515088</v>
       </c>
       <c r="D16">
-        <v>9.544571549445921</v>
+        <v>13.30309707119186</v>
       </c>
       <c r="E16">
-        <v>7.544214772896305</v>
+        <v>12.67977997119921</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.16501441527311</v>
+        <v>3.875217834378898</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.459944015957234</v>
+        <v>7.821897977290551</v>
       </c>
       <c r="K16">
-        <v>21.90986708414821</v>
+        <v>25.76894667219826</v>
       </c>
       <c r="L16">
-        <v>9.563057687418516</v>
+        <v>14.56067674914785</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>25.81734304650444</v>
+        <v>31.94472523248217</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.8197011612384</v>
+        <v>30.9513931988343</v>
       </c>
       <c r="C17">
-        <v>10.08440310137702</v>
+        <v>8.701188795616229</v>
       </c>
       <c r="D17">
-        <v>9.445827753474031</v>
+        <v>13.29980156262224</v>
       </c>
       <c r="E17">
-        <v>7.527034732678316</v>
+        <v>12.6873153456404</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.170701390782893</v>
+        <v>3.876910757705859</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.467057378480159</v>
+        <v>7.82449694656784</v>
       </c>
       <c r="K17">
-        <v>21.57515029819387</v>
+        <v>25.7300210696984</v>
       </c>
       <c r="L17">
-        <v>9.49537868580747</v>
+        <v>14.56382427806217</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>25.683488340021</v>
+        <v>31.90873776614875</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.56911600894868</v>
+        <v>30.91946437017026</v>
       </c>
       <c r="C18">
-        <v>9.959561948998546</v>
+        <v>8.672437888963215</v>
       </c>
       <c r="D18">
-        <v>9.389514954186758</v>
+        <v>13.29814073727475</v>
       </c>
       <c r="E18">
-        <v>7.517588967931387</v>
+        <v>12.6918007265304</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.173975312340272</v>
+        <v>3.877897360516757</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.471176695589293</v>
+        <v>7.826013990163819</v>
       </c>
       <c r="K18">
-        <v>21.38290901779011</v>
+        <v>25.7081649201239</v>
       </c>
       <c r="L18">
-        <v>9.457080407017314</v>
+        <v>14.56585979871393</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>25.60708798849972</v>
+        <v>31.88812175376464</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.4842829011797</v>
+        <v>30.90876547451438</v>
       </c>
       <c r="C19">
-        <v>9.917185477097728</v>
+        <v>8.662724527849578</v>
       </c>
       <c r="D19">
-        <v>9.370530349339559</v>
+        <v>13.29761873887506</v>
       </c>
       <c r="E19">
-        <v>7.514464451059897</v>
+        <v>12.69334538087875</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.175084490261447</v>
+        <v>3.878233623052072</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.472576324630836</v>
+        <v>7.826531450899528</v>
       </c>
       <c r="K19">
-        <v>21.31786631989269</v>
+        <v>25.70085667650566</v>
       </c>
       <c r="L19">
-        <v>9.444219705893824</v>
+        <v>14.56658766135376</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>25.58131887035515</v>
+        <v>31.88115590451099</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.86608413192049</v>
+        <v>30.95735540860686</v>
       </c>
       <c r="C20">
-        <v>10.10745784631613</v>
+        <v>8.706519793194895</v>
       </c>
       <c r="D20">
-        <v>9.456289102653805</v>
+        <v>13.30012809435566</v>
       </c>
       <c r="E20">
-        <v>7.528818196085569</v>
+        <v>12.68649754184185</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.170095743816179</v>
+        <v>3.876729211234413</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.466297287197144</v>
+        <v>7.824217987077074</v>
       </c>
       <c r="K20">
-        <v>21.61075232297129</v>
+        <v>25.7341097072486</v>
       </c>
       <c r="L20">
-        <v>9.502517762874445</v>
+        <v>14.56346591697605</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>25.69767580631154</v>
+        <v>31.91256012875313</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.14984118105803</v>
+        <v>31.12829365449772</v>
       </c>
       <c r="C21">
-        <v>10.78203042139952</v>
+        <v>8.855007530187146</v>
       </c>
       <c r="D21">
-        <v>9.750260176605799</v>
+        <v>13.31136085874684</v>
       </c>
       <c r="E21">
-        <v>7.582342444677013</v>
+        <v>12.66529610681719</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.153354886348302</v>
+        <v>3.871828166458207</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.445525639255197</v>
+        <v>7.816709723655905</v>
       </c>
       <c r="K21">
-        <v>22.59826739772142</v>
+        <v>25.85217373272891</v>
       </c>
       <c r="L21">
-        <v>9.70603016986548</v>
+        <v>14.55566707131494</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>26.09585864066657</v>
+        <v>32.01905707538183</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.99002932777194</v>
+        <v>31.24563339639838</v>
       </c>
       <c r="C22">
-        <v>11.23297709986911</v>
+        <v>8.952896558491615</v>
       </c>
       <c r="D22">
-        <v>9.946932281670223</v>
+        <v>13.32078512353705</v>
       </c>
       <c r="E22">
-        <v>7.621490365697175</v>
+        <v>12.65278480550535</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.142394687900369</v>
+        <v>3.868738844331548</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.432172789717583</v>
+        <v>7.811998967225723</v>
       </c>
       <c r="K22">
-        <v>23.24664053582887</v>
+        <v>25.93399395098204</v>
       </c>
       <c r="L22">
-        <v>9.845036608144261</v>
+        <v>14.55257412995878</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>26.36197486165856</v>
+        <v>32.08937096475581</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.54145508653378</v>
+        <v>31.182499525419</v>
       </c>
       <c r="C23">
-        <v>10.99312017092099</v>
+        <v>8.900584132104557</v>
       </c>
       <c r="D23">
-        <v>9.841533719219397</v>
+        <v>13.31556498677283</v>
       </c>
       <c r="E23">
-        <v>7.600200272703718</v>
+        <v>12.6593393314032</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.14824847403511</v>
+        <v>3.870377304247848</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.439280413902133</v>
+        <v>7.814495281830881</v>
       </c>
       <c r="K23">
-        <v>22.90028430774196</v>
+        <v>25.88990309603548</v>
       </c>
       <c r="L23">
-        <v>9.770275854510242</v>
+        <v>14.55404158088514</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>26.21937153258754</v>
+        <v>32.05177932885348</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.84511453562009</v>
+        <v>30.95465792354459</v>
       </c>
       <c r="C24">
-        <v>10.09703688752829</v>
+        <v>8.704109319904644</v>
       </c>
       <c r="D24">
-        <v>9.451558107756671</v>
+        <v>13.29997974103578</v>
       </c>
       <c r="E24">
-        <v>7.528010552019169</v>
+        <v>12.6868667937571</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.170369542619376</v>
+        <v>3.876811246899533</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.466640831524478</v>
+        <v>7.824344033440784</v>
       </c>
       <c r="K24">
-        <v>21.59465605390917</v>
+        <v>25.73225960519711</v>
       </c>
       <c r="L24">
-        <v>9.499288286273476</v>
+        <v>14.56362722818798</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>25.69125993225328</v>
+        <v>31.91083180888112</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.01824669382103</v>
+        <v>30.73368467253154</v>
       </c>
       <c r="C25">
-        <v>9.174618244134724</v>
+        <v>8.496814819678068</v>
       </c>
       <c r="D25">
-        <v>9.049295670196885</v>
+        <v>13.29214174541767</v>
       </c>
       <c r="E25">
-        <v>7.466669771840897</v>
+        <v>12.72234240998645</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.194361540942772</v>
+        <v>3.884244195915843</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.497232273643429</v>
+        <v>7.83581645623048</v>
       </c>
       <c r="K25">
-        <v>20.19718419270843</v>
+        <v>25.5826253732754</v>
       </c>
       <c r="L25">
-        <v>9.230870947446498</v>
+        <v>14.58257401279878</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>25.14389356162834</v>
+        <v>31.76198531851732</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.59289261161933</v>
+        <v>23.67604496635706</v>
       </c>
       <c r="C2">
-        <v>8.349247353293682</v>
+        <v>8.473635147705751</v>
       </c>
       <c r="D2">
-        <v>13.29410330362165</v>
+        <v>8.76811511337363</v>
       </c>
       <c r="E2">
-        <v>12.75344722785181</v>
+        <v>7.434373057394305</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.890146777832082</v>
+        <v>2.212342149028439</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.845001912645786</v>
+        <v>4.520809704072988</v>
       </c>
       <c r="K2">
-        <v>25.49035728962296</v>
+        <v>19.17755965622712</v>
       </c>
       <c r="L2">
-        <v>14.60392309422107</v>
+        <v>9.05201438210471</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>31.65524084359587</v>
+        <v>24.75727440596252</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30.51139263075643</v>
+        <v>22.77015410967503</v>
       </c>
       <c r="C3">
-        <v>8.252932480579201</v>
+        <v>7.985142212565857</v>
       </c>
       <c r="D3">
-        <v>13.3002580987778</v>
+        <v>8.586727615669746</v>
       </c>
       <c r="E3">
-        <v>12.77764170490774</v>
+        <v>7.419914316355975</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.894418003580121</v>
+        <v>2.224809726811599</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.851691727538383</v>
+        <v>4.53750084709055</v>
       </c>
       <c r="K3">
-        <v>25.43914056227185</v>
+        <v>18.493614264153</v>
       </c>
       <c r="L3">
-        <v>14.62300235898947</v>
+        <v>8.941770950798853</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>31.58472876753818</v>
+        <v>24.50437965531768</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.46828476583568</v>
+        <v>22.21685282341723</v>
       </c>
       <c r="C4">
-        <v>8.195789625228258</v>
+        <v>7.678941168159178</v>
       </c>
       <c r="D4">
-        <v>13.30641649061195</v>
+        <v>8.479855655949013</v>
       </c>
       <c r="E4">
-        <v>12.79403516926478</v>
+        <v>7.414519059502276</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.897175179570771</v>
+        <v>2.232628473343949</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.856029908973998</v>
+        <v>4.548117406381569</v>
       </c>
       <c r="K4">
-        <v>25.41331238699426</v>
+        <v>18.07787631501063</v>
       </c>
       <c r="L4">
-        <v>14.636989355413</v>
+        <v>8.879268213283824</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>31.5423533303027</v>
+        <v>24.35328944498287</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.45247087250158</v>
+        <v>21.99231751410733</v>
       </c>
       <c r="C5">
-        <v>8.173030509015131</v>
+        <v>7.552676104411341</v>
       </c>
       <c r="D5">
-        <v>13.30952421520336</v>
+        <v>8.437435753581411</v>
       </c>
       <c r="E5">
-        <v>12.8011026342866</v>
+        <v>7.413170627874774</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.898332738827066</v>
+        <v>2.235859113184292</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.857855935070819</v>
+        <v>4.552538602417759</v>
       </c>
       <c r="K5">
-        <v>25.40420528535899</v>
+        <v>17.90965547822328</v>
       </c>
       <c r="L5">
-        <v>14.64326024447635</v>
+        <v>8.855070753801506</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>31.52531889579169</v>
+        <v>24.29273153263233</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>30.44995109994986</v>
+        <v>21.95509695651013</v>
       </c>
       <c r="C6">
-        <v>8.169283927378222</v>
+        <v>7.531623412684062</v>
       </c>
       <c r="D6">
-        <v>13.31007636729598</v>
+        <v>8.430460282884276</v>
       </c>
       <c r="E6">
-        <v>12.8022995625762</v>
+        <v>7.4129973445519</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.898527007386584</v>
+        <v>2.23639833373753</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.85816266505507</v>
+        <v>4.553278532681325</v>
       </c>
       <c r="K6">
-        <v>25.40277883248846</v>
+        <v>17.88179917085303</v>
       </c>
       <c r="L6">
-        <v>14.644336001844</v>
+        <v>8.851128750979377</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>31.52250454458248</v>
+        <v>24.28273596837696</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30.46806438562832</v>
+        <v>22.21382056287765</v>
       </c>
       <c r="C7">
-        <v>8.195480521086571</v>
+        <v>7.677244186396058</v>
       </c>
       <c r="D7">
-        <v>13.30645598103429</v>
+        <v>8.47927898595977</v>
       </c>
       <c r="E7">
-        <v>12.79412891629992</v>
+        <v>7.414497464666805</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.897190653028492</v>
+        <v>2.232671858790781</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.856054299567106</v>
+        <v>4.548176645144067</v>
       </c>
       <c r="K7">
-        <v>25.41318381788575</v>
+        <v>18.0756025914178</v>
       </c>
       <c r="L7">
-        <v>14.63707161503236</v>
+        <v>8.878936765187294</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>31.54212264755137</v>
+        <v>24.3524686912</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30.56335856562711</v>
+        <v>23.36320028380153</v>
       </c>
       <c r="C8">
-        <v>8.315639572866225</v>
+        <v>8.306546571261888</v>
       </c>
       <c r="D8">
-        <v>13.29573159959577</v>
+        <v>8.704637936220935</v>
       </c>
       <c r="E8">
-        <v>12.76147044072993</v>
+        <v>7.428649182008934</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.891591636161208</v>
+        <v>2.216609087353104</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.847260814778553</v>
+        <v>4.52648982807836</v>
       </c>
       <c r="K8">
-        <v>25.47153495026632</v>
+        <v>18.94093774484248</v>
       </c>
       <c r="L8">
-        <v>14.61002985990626</v>
+        <v>9.012906708310812</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>31.63073916868115</v>
+        <v>24.66918144199267</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.80475322364673</v>
+        <v>25.63331702246383</v>
       </c>
       <c r="C9">
-        <v>8.565927983703615</v>
+        <v>9.488677369880445</v>
       </c>
       <c r="D9">
-        <v>13.29358148648431</v>
+        <v>9.182430028190613</v>
       </c>
       <c r="E9">
-        <v>12.70961884643243</v>
+        <v>7.485249134753619</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.881674027790798</v>
+        <v>2.186243203713047</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.831837804509567</v>
+        <v>4.486771782119614</v>
       </c>
       <c r="K9">
-        <v>25.6302700131874</v>
+        <v>20.66655864219615</v>
       </c>
       <c r="L9">
-        <v>14.57504204964618</v>
+        <v>9.318263805502921</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>31.81168884080631</v>
+        <v>25.32556163673264</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.01457901786749</v>
+        <v>27.30522550351321</v>
       </c>
       <c r="C10">
-        <v>8.757123013593741</v>
+        <v>10.32495019097747</v>
       </c>
       <c r="D10">
-        <v>13.30350488935062</v>
+        <v>9.555904921525302</v>
       </c>
       <c r="E10">
-        <v>12.67894061959297</v>
+        <v>7.546235101419802</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.875026402050967</v>
+        <v>2.164365744907241</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.821604418772258</v>
+        <v>4.459136028596487</v>
       </c>
       <c r="K10">
-        <v>25.77346027375544</v>
+        <v>21.94809942031221</v>
       </c>
       <c r="L10">
-        <v>14.56034810048766</v>
+        <v>9.570866792867678</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>31.94884281180881</v>
+        <v>25.832698626311</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.11688720729466</v>
+        <v>28.06659952506008</v>
       </c>
       <c r="C11">
-        <v>8.845333323512921</v>
+        <v>10.73694587216799</v>
       </c>
       <c r="D11">
-        <v>13.31051146869408</v>
+        <v>9.730951047130846</v>
       </c>
       <c r="E11">
-        <v>12.66659150745999</v>
+        <v>7.578636029023139</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.872139101084102</v>
+        <v>2.154440027090818</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.817184786613645</v>
+        <v>4.446858213564784</v>
       </c>
       <c r="K11">
-        <v>25.84425041955632</v>
+        <v>22.5341150242987</v>
       </c>
       <c r="L11">
-        <v>14.55605560164532</v>
+        <v>9.692499977636137</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>32.01211428782857</v>
+        <v>26.06972496453225</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.15659533672284</v>
+        <v>28.35510297737586</v>
       </c>
       <c r="C12">
-        <v>8.878883792687716</v>
+        <v>10.89287612289726</v>
       </c>
       <c r="D12">
-        <v>13.31352217568674</v>
+        <v>9.798012454884361</v>
       </c>
       <c r="E12">
-        <v>12.66214595004076</v>
+        <v>7.591616530695649</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.871065275965364</v>
+        <v>2.150678731284881</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.815544864602971</v>
+        <v>4.442247408826336</v>
       </c>
       <c r="K12">
-        <v>25.87185747019494</v>
+        <v>22.75652490850588</v>
       </c>
       <c r="L12">
-        <v>14.55477396796821</v>
+        <v>9.73958324900439</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>32.03619630795483</v>
+        <v>26.16048137365496</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.14800083899879</v>
+        <v>28.29295836733652</v>
       </c>
       <c r="C13">
-        <v>8.871652037005404</v>
+        <v>10.85936500966537</v>
       </c>
       <c r="D13">
-        <v>13.31285788483404</v>
+        <v>9.783534405686064</v>
       </c>
       <c r="E13">
-        <v>12.66309312016163</v>
+        <v>7.588788621506039</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.871295676737103</v>
+        <v>2.151489023586999</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.81589655533458</v>
+        <v>4.443238777317307</v>
       </c>
       <c r="K13">
-        <v>25.86587641148672</v>
+        <v>22.70860121534058</v>
       </c>
       <c r="L13">
-        <v>14.55503470097773</v>
+        <v>9.72939649653701</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>32.03100443151781</v>
+        <v>26.14088929389576</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.12013477323089</v>
+        <v>28.09033046024582</v>
       </c>
       <c r="C14">
-        <v>8.848090765457108</v>
+        <v>10.74980670729955</v>
       </c>
       <c r="D14">
-        <v>13.31075200332467</v>
+        <v>9.736452446347203</v>
       </c>
       <c r="E14">
-        <v>12.6662211449475</v>
+        <v>7.579689441529212</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.872050366114197</v>
+        <v>2.154130676137718</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.817049194937733</v>
+        <v>4.446478130141443</v>
       </c>
       <c r="K14">
-        <v>25.84650570301362</v>
+        <v>22.55240227868047</v>
       </c>
       <c r="L14">
-        <v>14.5559432707184</v>
+        <v>9.696352675467097</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>32.01409309870613</v>
+        <v>26.07717094248973</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.10319122104988</v>
+        <v>27.96624275324737</v>
       </c>
       <c r="C15">
-        <v>8.833677068574865</v>
+        <v>10.68248752223732</v>
       </c>
       <c r="D15">
-        <v>13.30950861142215</v>
+        <v>9.707715600847697</v>
       </c>
       <c r="E15">
-        <v>12.66816719794401</v>
+        <v>7.574209820473005</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.872515175095333</v>
+        <v>2.155748213802215</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.81775960296121</v>
+        <v>4.448467229417201</v>
       </c>
       <c r="K15">
-        <v>25.83474442711702</v>
+        <v>22.45679360846914</v>
       </c>
       <c r="L15">
-        <v>14.55654456951598</v>
+        <v>9.676247512163469</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>32.00375024937125</v>
+        <v>26.03827473633069</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.00802926395442</v>
+        <v>27.25548874742939</v>
       </c>
       <c r="C16">
-        <v>8.75138050515088</v>
+        <v>10.30038636016806</v>
       </c>
       <c r="D16">
-        <v>13.30309707119186</v>
+        <v>9.544571549445886</v>
       </c>
       <c r="E16">
-        <v>12.67977997119921</v>
+        <v>7.544214772896312</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.875217834378898</v>
+        <v>2.165014415273243</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.821897977290551</v>
+        <v>4.459944015957165</v>
       </c>
       <c r="K16">
-        <v>25.76894667219826</v>
+        <v>21.90986708414824</v>
       </c>
       <c r="L16">
-        <v>14.56067674914785</v>
+        <v>9.563057687418535</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>31.94472523248217</v>
+        <v>25.81734304650454</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.9513931988343</v>
+        <v>26.81970116123838</v>
       </c>
       <c r="C17">
-        <v>8.701188795616229</v>
+        <v>10.08440310137698</v>
       </c>
       <c r="D17">
-        <v>13.29980156262224</v>
+        <v>9.445827753474074</v>
       </c>
       <c r="E17">
-        <v>12.6873153456404</v>
+        <v>7.527034732678269</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.876910757705859</v>
+        <v>2.170701390782883</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.82449694656784</v>
+        <v>4.467057378479995</v>
       </c>
       <c r="K17">
-        <v>25.7300210696984</v>
+        <v>21.57515029819388</v>
       </c>
       <c r="L17">
-        <v>14.56382427806217</v>
+        <v>9.495378685807452</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>31.90873776614875</v>
+        <v>25.68348834002109</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.91946437017026</v>
+        <v>26.56911600894864</v>
       </c>
       <c r="C18">
-        <v>8.672437888963215</v>
+        <v>9.9595619489985</v>
       </c>
       <c r="D18">
-        <v>13.29814073727475</v>
+        <v>9.389514954186746</v>
       </c>
       <c r="E18">
-        <v>12.6918007265304</v>
+        <v>7.517588967931385</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.877897360516757</v>
+        <v>2.173975312340407</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.826013990163819</v>
+        <v>4.471176695589394</v>
       </c>
       <c r="K18">
-        <v>25.7081649201239</v>
+        <v>21.38290901779006</v>
       </c>
       <c r="L18">
-        <v>14.56585979871393</v>
+        <v>9.457080407017331</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>31.88812175376464</v>
+        <v>25.6070879884996</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.90876547451438</v>
+        <v>26.48428290117969</v>
       </c>
       <c r="C19">
-        <v>8.662724527849578</v>
+        <v>9.917185477097707</v>
       </c>
       <c r="D19">
-        <v>13.29761873887506</v>
+        <v>9.370530349339587</v>
       </c>
       <c r="E19">
-        <v>12.69334538087875</v>
+        <v>7.514464451059849</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.878233623052072</v>
+        <v>2.175084490261187</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.826531450899528</v>
+        <v>4.472576324630738</v>
       </c>
       <c r="K19">
-        <v>25.70085667650566</v>
+        <v>21.31786631989272</v>
       </c>
       <c r="L19">
-        <v>14.56658766135376</v>
+        <v>9.444219705893866</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>31.88115590451099</v>
+        <v>25.58131887035517</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.95735540860686</v>
+        <v>26.86608413192045</v>
       </c>
       <c r="C20">
-        <v>8.706519793194895</v>
+        <v>10.10745784631609</v>
       </c>
       <c r="D20">
-        <v>13.30012809435566</v>
+        <v>9.456289102653823</v>
       </c>
       <c r="E20">
-        <v>12.68649754184185</v>
+        <v>7.528818196085616</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.876729211234413</v>
+        <v>2.170095743816179</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.824217987077074</v>
+        <v>4.466297287197141</v>
       </c>
       <c r="K20">
-        <v>25.7341097072486</v>
+        <v>21.6107523229713</v>
       </c>
       <c r="L20">
-        <v>14.56346591697605</v>
+        <v>9.502517762874477</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>31.91256012875313</v>
+        <v>25.69767580631153</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.12829365449772</v>
+        <v>28.149841181058</v>
       </c>
       <c r="C21">
-        <v>8.855007530187146</v>
+        <v>10.78203042139947</v>
       </c>
       <c r="D21">
-        <v>13.31136085874684</v>
+        <v>9.750260176605781</v>
       </c>
       <c r="E21">
-        <v>12.66529610681719</v>
+        <v>7.582342444676933</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.871828166458207</v>
+        <v>2.153354886348561</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.816709723655905</v>
+        <v>4.445525639255067</v>
       </c>
       <c r="K21">
-        <v>25.85217373272891</v>
+        <v>22.59826739772141</v>
       </c>
       <c r="L21">
-        <v>14.55566707131494</v>
+        <v>9.706030169865503</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>32.01905707538183</v>
+        <v>26.09585864066662</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.24563339639838</v>
+        <v>28.99002932777198</v>
       </c>
       <c r="C22">
-        <v>8.952896558491615</v>
+        <v>11.23297709986909</v>
       </c>
       <c r="D22">
-        <v>13.32078512353705</v>
+        <v>9.946932281670186</v>
       </c>
       <c r="E22">
-        <v>12.65278480550535</v>
+        <v>7.621490365697155</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.868738844331548</v>
+        <v>2.142394687900224</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.811998967225723</v>
+        <v>4.432172789717647</v>
       </c>
       <c r="K22">
-        <v>25.93399395098204</v>
+        <v>23.2466405358289</v>
       </c>
       <c r="L22">
-        <v>14.55257412995878</v>
+        <v>9.845036608144287</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.08937096475581</v>
+        <v>26.36197486165863</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.182499525419</v>
+        <v>28.54145508653373</v>
       </c>
       <c r="C23">
-        <v>8.900584132104557</v>
+        <v>10.993120170921</v>
       </c>
       <c r="D23">
-        <v>13.31556498677283</v>
+        <v>9.841533719219468</v>
       </c>
       <c r="E23">
-        <v>12.6593393314032</v>
+        <v>7.60020027270382</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.870377304247848</v>
+        <v>2.148248474035114</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.814495281830881</v>
+        <v>4.439280413902263</v>
       </c>
       <c r="K23">
-        <v>25.88990309603548</v>
+        <v>22.90028430774195</v>
       </c>
       <c r="L23">
-        <v>14.55404158088514</v>
+        <v>9.770275854510343</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>32.05177932885348</v>
+        <v>26.21937153258751</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.95465792354459</v>
+        <v>26.84511453562009</v>
       </c>
       <c r="C24">
-        <v>8.704109319904644</v>
+        <v>10.09703688752826</v>
       </c>
       <c r="D24">
-        <v>13.29997974103578</v>
+        <v>9.45155810775675</v>
       </c>
       <c r="E24">
-        <v>12.6868667937571</v>
+        <v>7.528010552019163</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.876811246899533</v>
+        <v>2.170369542619635</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.824344033440784</v>
+        <v>4.466640831524547</v>
       </c>
       <c r="K24">
-        <v>25.73225960519711</v>
+        <v>21.59465605390915</v>
       </c>
       <c r="L24">
-        <v>14.56362722818798</v>
+        <v>9.499288286273524</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>31.91083180888112</v>
+        <v>25.69125993225333</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.73368467253154</v>
+        <v>25.0182466938211</v>
       </c>
       <c r="C25">
-        <v>8.496814819678068</v>
+        <v>9.174618244134702</v>
       </c>
       <c r="D25">
-        <v>13.29214174541767</v>
+        <v>9.049295670196779</v>
       </c>
       <c r="E25">
-        <v>12.72234240998645</v>
+        <v>7.466669771840959</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.884244195915843</v>
+        <v>2.194361540942646</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.83581645623048</v>
+        <v>4.497232273643526</v>
       </c>
       <c r="K25">
-        <v>25.5826253732754</v>
+        <v>20.19718419270846</v>
       </c>
       <c r="L25">
-        <v>14.58257401279878</v>
+        <v>9.23087094744646</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>31.76198531851732</v>
+        <v>25.14389356162835</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.67604496635706</v>
+        <v>22.20560391451953</v>
       </c>
       <c r="C2">
-        <v>8.473635147705751</v>
+        <v>16.45402637157938</v>
       </c>
       <c r="D2">
-        <v>8.76811511337363</v>
+        <v>7.10686368240517</v>
       </c>
       <c r="E2">
-        <v>7.434373057394305</v>
+        <v>7.820937789789149</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.212342149028439</v>
+        <v>44.31307706545392</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.103604407806869</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.692432320115882</v>
       </c>
       <c r="J2">
-        <v>4.520809704072988</v>
+        <v>13.30483848410635</v>
       </c>
       <c r="K2">
-        <v>19.17755965622712</v>
+        <v>20.46227593531431</v>
       </c>
       <c r="L2">
-        <v>9.05201438210471</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>24.75727440596252</v>
+        <v>6.842410697876285</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.50196978722179</v>
+      </c>
+      <c r="P2">
+        <v>13.064219477634</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.77015410967503</v>
+        <v>20.77712280329514</v>
       </c>
       <c r="C3">
-        <v>7.985142212565857</v>
+        <v>15.36952557908843</v>
       </c>
       <c r="D3">
-        <v>8.586727615669746</v>
+        <v>6.61203603627418</v>
       </c>
       <c r="E3">
-        <v>7.419914316355975</v>
+        <v>7.574587515560864</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.224809726811599</v>
+        <v>42.30584780467644</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.369279554622455</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.931626401163554</v>
       </c>
       <c r="J3">
-        <v>4.53750084709055</v>
+        <v>12.99516787632315</v>
       </c>
       <c r="K3">
-        <v>18.493614264153</v>
+        <v>20.06796354334003</v>
       </c>
       <c r="L3">
-        <v>8.941770950798853</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.50437965531768</v>
+        <v>6.639238971993755</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.85095290564069</v>
+      </c>
+      <c r="P3">
+        <v>13.22118038315841</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.21685282341723</v>
+        <v>19.84938207302916</v>
       </c>
       <c r="C4">
-        <v>7.678941168159178</v>
+        <v>14.67033184823284</v>
       </c>
       <c r="D4">
-        <v>8.479855655949013</v>
+        <v>6.292021596682114</v>
       </c>
       <c r="E4">
-        <v>7.414519059502276</v>
+        <v>7.419268731560945</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.232628473343949</v>
+        <v>41.03980146717774</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.53760712587269</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.084020961542213</v>
       </c>
       <c r="J4">
-        <v>4.548117406381569</v>
+        <v>12.8054589036898</v>
       </c>
       <c r="K4">
-        <v>18.07787631501063</v>
+        <v>19.82593738674411</v>
       </c>
       <c r="L4">
-        <v>8.879268213283824</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>24.35328944498287</v>
+        <v>6.511329247541823</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.43504838520393</v>
+      </c>
+      <c r="P4">
+        <v>13.31823357551121</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.99231751410733</v>
+        <v>19.45138139646833</v>
       </c>
       <c r="C5">
-        <v>7.552676104411341</v>
+        <v>14.38231978216623</v>
       </c>
       <c r="D5">
-        <v>8.437435753581411</v>
+        <v>6.177693285182584</v>
       </c>
       <c r="E5">
-        <v>7.413170627874774</v>
+        <v>7.354597047758829</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.235859113184292</v>
+        <v>40.49121204393445</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.608027430870611</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.15052515115156</v>
       </c>
       <c r="J5">
-        <v>4.552538602417759</v>
+        <v>12.72337658810521</v>
       </c>
       <c r="K5">
-        <v>17.90965547822328</v>
+        <v>19.71725029856776</v>
       </c>
       <c r="L5">
-        <v>8.855070753801506</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>24.29273153263233</v>
+        <v>6.458813486032577</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.25941971827238</v>
+      </c>
+      <c r="P5">
+        <v>13.35666159504349</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.95509695651013</v>
+        <v>19.3756540192195</v>
       </c>
       <c r="C6">
-        <v>7.531623412684062</v>
+        <v>14.34051647372028</v>
       </c>
       <c r="D6">
-        <v>8.430460282884276</v>
+        <v>6.158532999781758</v>
       </c>
       <c r="E6">
-        <v>7.4129973445519</v>
+        <v>7.343401949498045</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.23639833373753</v>
+        <v>40.36930838176858</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.62039560975019</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.165493311110658</v>
       </c>
       <c r="J6">
-        <v>4.553278532681325</v>
+        <v>12.70370961804964</v>
       </c>
       <c r="K6">
-        <v>17.88179917085303</v>
+        <v>19.68681212394652</v>
       </c>
       <c r="L6">
-        <v>8.851128750979377</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>24.28273596837696</v>
+        <v>6.450503234229775</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.22728829031912</v>
+      </c>
+      <c r="P6">
+        <v>13.3614585287872</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.21382056287765</v>
+        <v>19.82037584610004</v>
       </c>
       <c r="C7">
-        <v>7.677244186396058</v>
+        <v>14.68388433993039</v>
       </c>
       <c r="D7">
-        <v>8.47927898595977</v>
+        <v>6.2904084862465</v>
       </c>
       <c r="E7">
-        <v>7.414497464666805</v>
+        <v>7.417353367253654</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.232671858790781</v>
+        <v>40.9508019913536</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.540151108361884</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.09515263513735</v>
       </c>
       <c r="J7">
-        <v>4.548176645144067</v>
+        <v>12.78795430597964</v>
       </c>
       <c r="K7">
-        <v>18.0756025914178</v>
+        <v>19.79081917174039</v>
       </c>
       <c r="L7">
-        <v>8.878936765187294</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>24.3524686912</v>
+        <v>6.511861955800893</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.42533783895989</v>
+      </c>
+      <c r="P7">
+        <v>13.31444941765877</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.36320028380153</v>
+        <v>21.69455839573201</v>
       </c>
       <c r="C8">
-        <v>8.306546571261888</v>
+        <v>16.10817829491688</v>
       </c>
       <c r="D8">
-        <v>8.704637936220935</v>
+        <v>6.939531095016278</v>
       </c>
       <c r="E8">
-        <v>7.428649182008934</v>
+        <v>7.735520779401242</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.216609087353104</v>
+        <v>43.52602159662865</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.196179234393822</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.7872494908838</v>
       </c>
       <c r="J8">
-        <v>4.52648982807836</v>
+        <v>13.17691915339744</v>
       </c>
       <c r="K8">
-        <v>18.94093774484248</v>
+        <v>20.28282842452385</v>
       </c>
       <c r="L8">
-        <v>9.012906708310812</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>24.66918144199267</v>
+        <v>6.774646220989276</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.27173390806409</v>
+      </c>
+      <c r="P8">
+        <v>13.11277518875988</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.63331702246383</v>
+        <v>25.0049335089258</v>
       </c>
       <c r="C9">
-        <v>9.488677369880445</v>
+        <v>18.61211011187582</v>
       </c>
       <c r="D9">
-        <v>9.182430028190613</v>
+        <v>8.083489146553578</v>
       </c>
       <c r="E9">
-        <v>7.485249134753619</v>
+        <v>8.330701459973652</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.186243203713047</v>
+        <v>48.42319950793046</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.562358309515213</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.738555482950099</v>
       </c>
       <c r="J9">
-        <v>4.486771782119614</v>
+        <v>13.96876969303702</v>
       </c>
       <c r="K9">
-        <v>20.66655864219615</v>
+        <v>21.30439598686266</v>
       </c>
       <c r="L9">
-        <v>9.318263805502921</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>25.32556163673264</v>
+        <v>7.261470578881295</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.80961118601754</v>
+      </c>
+      <c r="P9">
+        <v>12.72899210040576</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.30522550351321</v>
+        <v>27.18874948650438</v>
       </c>
       <c r="C10">
-        <v>10.32495019097747</v>
+        <v>20.33007542305025</v>
       </c>
       <c r="D10">
-        <v>9.555904921525302</v>
+        <v>8.845865689341235</v>
       </c>
       <c r="E10">
-        <v>7.546235101419802</v>
+        <v>8.776185295397703</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.164365744907241</v>
+        <v>51.46450331706244</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.987002342962577</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.12263237886188</v>
       </c>
       <c r="J10">
-        <v>4.459136028596487</v>
+        <v>14.46947937416786</v>
       </c>
       <c r="K10">
-        <v>21.94809942031221</v>
+        <v>21.89750259681214</v>
       </c>
       <c r="L10">
-        <v>9.570866792867678</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>25.832698626311</v>
+        <v>7.501819642022259</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.74170429143742</v>
+      </c>
+      <c r="P10">
+        <v>12.4295224627545</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.06659952506008</v>
+        <v>27.51600554342211</v>
       </c>
       <c r="C11">
-        <v>10.73694587216799</v>
+        <v>21.32546539021038</v>
       </c>
       <c r="D11">
-        <v>9.730951047130846</v>
+        <v>9.169264616406476</v>
       </c>
       <c r="E11">
-        <v>7.578636029023139</v>
+        <v>9.342353888754484</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.154440027090818</v>
+        <v>49.91079191099801</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.896854879032482</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.231970727172063</v>
       </c>
       <c r="J11">
-        <v>4.446858213564784</v>
+        <v>14.05791158013041</v>
       </c>
       <c r="K11">
-        <v>22.5341150242987</v>
+        <v>20.9248215545196</v>
       </c>
       <c r="L11">
-        <v>9.692499977636137</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>26.06972496453225</v>
+        <v>6.789621963372775</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.21601546421075</v>
+      </c>
+      <c r="P11">
+        <v>12.17039922570711</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.35510297737586</v>
+        <v>27.37107143007401</v>
       </c>
       <c r="C12">
-        <v>10.89287612289726</v>
+        <v>21.79684378988363</v>
       </c>
       <c r="D12">
-        <v>9.798012454884361</v>
+        <v>9.286675224956941</v>
       </c>
       <c r="E12">
-        <v>7.591616530695649</v>
+        <v>9.91795646477982</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.150678731284881</v>
+        <v>48.0357844932479</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.162259230268896</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.245615038750409</v>
       </c>
       <c r="J12">
-        <v>4.442247408826336</v>
+        <v>13.61856998354065</v>
       </c>
       <c r="K12">
-        <v>22.75652490850588</v>
+        <v>20.01599875602519</v>
       </c>
       <c r="L12">
-        <v>9.73958324900439</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>26.16048137365496</v>
+        <v>6.209249571741349</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.57763987516419</v>
+      </c>
+      <c r="P12">
+        <v>12.05733781805905</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.29295836733652</v>
+        <v>26.82162096073213</v>
       </c>
       <c r="C13">
-        <v>10.85936500966537</v>
+        <v>21.92807990288318</v>
       </c>
       <c r="D13">
-        <v>9.783534405686064</v>
+        <v>9.255852079729873</v>
       </c>
       <c r="E13">
-        <v>7.588788621506039</v>
+        <v>10.50999376510634</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.151489023586999</v>
+        <v>45.63637933657386</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.482568804084619</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.189203168286184</v>
       </c>
       <c r="J13">
-        <v>4.443238777317307</v>
+        <v>13.10024572914397</v>
       </c>
       <c r="K13">
-        <v>22.70860121534058</v>
+        <v>19.04336168514848</v>
       </c>
       <c r="L13">
-        <v>9.72939649653701</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>26.14088929389576</v>
+        <v>5.71311947013494</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.78856600914151</v>
+      </c>
+      <c r="P13">
+        <v>12.04201979111089</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.09033046024582</v>
+        <v>26.2407016397285</v>
       </c>
       <c r="C14">
-        <v>10.74980670729955</v>
+        <v>21.87293100020058</v>
       </c>
       <c r="D14">
-        <v>9.736452446347203</v>
+        <v>9.166948494435074</v>
       </c>
       <c r="E14">
-        <v>7.579689441529212</v>
+        <v>10.94448868547976</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.154130676137718</v>
+        <v>43.66982654968227</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.450093236116555</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.119218268367865</v>
       </c>
       <c r="J14">
-        <v>4.446478130141443</v>
+        <v>12.69474981251697</v>
       </c>
       <c r="K14">
-        <v>22.55240227868047</v>
+        <v>18.32455834786608</v>
       </c>
       <c r="L14">
-        <v>9.696352675467097</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>26.07717094248973</v>
+        <v>5.431893479032509</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.15741095462361</v>
+      </c>
+      <c r="P14">
+        <v>12.07873647484709</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.96624275324737</v>
+        <v>26.0031077727396</v>
       </c>
       <c r="C15">
-        <v>10.68248752223732</v>
+        <v>21.79200011993634</v>
       </c>
       <c r="D15">
-        <v>9.707715600847697</v>
+        <v>9.113272307609014</v>
       </c>
       <c r="E15">
-        <v>7.574209820473005</v>
+        <v>11.03237728996117</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.155748213802215</v>
+        <v>43.04977080291748</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.690821581554365</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.087766527422334</v>
       </c>
       <c r="J15">
-        <v>4.448467229417201</v>
+        <v>12.57441580969811</v>
       </c>
       <c r="K15">
-        <v>22.45679360846914</v>
+        <v>18.12642734463106</v>
       </c>
       <c r="L15">
-        <v>9.676247512163469</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>26.03827473633069</v>
+        <v>5.371826183132704</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.96865869503605</v>
+      </c>
+      <c r="P15">
+        <v>12.10331654409219</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.25548874742939</v>
+        <v>25.16186248493032</v>
       </c>
       <c r="C16">
-        <v>10.30038636016806</v>
+        <v>21.08453174504005</v>
       </c>
       <c r="D16">
-        <v>9.544571549445886</v>
+        <v>8.805250513167813</v>
       </c>
       <c r="E16">
-        <v>7.544214772896312</v>
+        <v>10.7427047996887</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.165014415273243</v>
+        <v>42.04442649945573</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.48856566324749</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.937270620863065</v>
       </c>
       <c r="J16">
-        <v>4.459944015957165</v>
+        <v>12.4374620358667</v>
       </c>
       <c r="K16">
-        <v>21.90986708414824</v>
+        <v>18.0287108988687</v>
       </c>
       <c r="L16">
-        <v>9.563057687418535</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>25.81734304650454</v>
+        <v>5.355602157990059</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.68935777498044</v>
+      </c>
+      <c r="P16">
+        <v>12.2253792495088</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.81970116123838</v>
+        <v>24.8273257052086</v>
       </c>
       <c r="C17">
-        <v>10.08440310137698</v>
+        <v>20.56063215256837</v>
       </c>
       <c r="D17">
-        <v>9.445827753474074</v>
+        <v>8.613571741168553</v>
       </c>
       <c r="E17">
-        <v>7.527034732678269</v>
+        <v>10.26565042507237</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.170701390782883</v>
+        <v>42.35997696108109</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.751792636237177</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.858995537457305</v>
       </c>
       <c r="J17">
-        <v>4.467057378479995</v>
+        <v>12.55300171687543</v>
       </c>
       <c r="K17">
-        <v>21.57515029819388</v>
+        <v>18.33963716903452</v>
       </c>
       <c r="L17">
-        <v>9.495378685807452</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>25.68348834002109</v>
+        <v>5.480149830404921</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.82163073724478</v>
+      </c>
+      <c r="P17">
+        <v>12.29843727267</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.56911600894864</v>
+        <v>24.92043375058514</v>
       </c>
       <c r="C18">
-        <v>9.9595619489985</v>
+        <v>20.13161079740321</v>
       </c>
       <c r="D18">
-        <v>9.389514954186746</v>
+        <v>8.504085919823682</v>
       </c>
       <c r="E18">
-        <v>7.517588967931385</v>
+        <v>9.635801356241753</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.173975312340407</v>
+        <v>43.90361740337638</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.488435289232</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.833097800262419</v>
       </c>
       <c r="J18">
-        <v>4.471176695589394</v>
+        <v>12.90833971911903</v>
       </c>
       <c r="K18">
-        <v>21.38290901779006</v>
+        <v>19.0627297832197</v>
       </c>
       <c r="L18">
-        <v>9.457080407017331</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>25.6070879884996</v>
+        <v>5.809971630087656</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.32946680242513</v>
+      </c>
+      <c r="P18">
+        <v>12.3563229307088</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.48428290117969</v>
+        <v>25.31372567530384</v>
       </c>
       <c r="C19">
-        <v>9.917185477097707</v>
+        <v>19.84404974550734</v>
       </c>
       <c r="D19">
-        <v>9.370530349339587</v>
+        <v>8.470073603443035</v>
       </c>
       <c r="E19">
-        <v>7.514464451059849</v>
+        <v>9.050442701856811</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.175084490261187</v>
+        <v>46.15990816608184</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.970477524777721</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.862413433224624</v>
       </c>
       <c r="J19">
-        <v>4.472576324630738</v>
+        <v>13.39907925397951</v>
       </c>
       <c r="K19">
-        <v>21.31786631989272</v>
+        <v>20.0119547902801</v>
       </c>
       <c r="L19">
-        <v>9.444219705893866</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>25.58131887035517</v>
+        <v>6.364812816368945</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.08170073926969</v>
+      </c>
+      <c r="P19">
+        <v>12.42185066359008</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.86608413192045</v>
+        <v>26.57010265344755</v>
       </c>
       <c r="C20">
-        <v>10.10745784631609</v>
+        <v>19.93211465587933</v>
       </c>
       <c r="D20">
-        <v>9.456289102653823</v>
+        <v>8.65029474871131</v>
       </c>
       <c r="E20">
-        <v>7.528818196085616</v>
+        <v>8.658488005911117</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.170095743816179</v>
+        <v>50.4531035715725</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.870672879585481</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.030183484045053</v>
       </c>
       <c r="J20">
-        <v>4.466297287197141</v>
+        <v>14.28901781914559</v>
       </c>
       <c r="K20">
-        <v>21.6107523229713</v>
+        <v>21.63987889881517</v>
       </c>
       <c r="L20">
-        <v>9.502517762874477</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>25.69767580631153</v>
+        <v>7.438509806939321</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.47847180980691</v>
+      </c>
+      <c r="P20">
+        <v>12.49602243659046</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.149841181058</v>
+        <v>28.29015417841066</v>
       </c>
       <c r="C21">
-        <v>10.78203042139947</v>
+        <v>21.15015747983711</v>
       </c>
       <c r="D21">
-        <v>9.750260176605781</v>
+        <v>9.212960172837764</v>
       </c>
       <c r="E21">
-        <v>7.582342444676933</v>
+        <v>8.958902770219003</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.153354886348561</v>
+        <v>53.28044753241127</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.208682617841458</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.330558998773971</v>
       </c>
       <c r="J21">
-        <v>4.445525639255067</v>
+        <v>14.79327321909555</v>
       </c>
       <c r="K21">
-        <v>22.59826739772141</v>
+        <v>22.33072579818902</v>
       </c>
       <c r="L21">
-        <v>9.706030169865503</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>26.09585864066662</v>
+        <v>7.772501469938732</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>16.33632374869532</v>
+      </c>
+      <c r="P21">
+        <v>12.29522045224596</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.99002932777198</v>
+        <v>29.35317115173503</v>
       </c>
       <c r="C22">
-        <v>11.23297709986909</v>
+        <v>21.91805575512584</v>
       </c>
       <c r="D22">
-        <v>9.946932281670186</v>
+        <v>9.567245612070456</v>
       </c>
       <c r="E22">
-        <v>7.621490365697155</v>
+        <v>9.166840639159521</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.142394687900224</v>
+        <v>55.00116149144071</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.421957926175047</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.518238628206488</v>
       </c>
       <c r="J22">
-        <v>4.432172789717647</v>
+        <v>15.10324861273437</v>
       </c>
       <c r="K22">
-        <v>23.2466405358289</v>
+        <v>22.74810440022506</v>
       </c>
       <c r="L22">
-        <v>9.845036608144287</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>26.36197486165863</v>
+        <v>7.934202821599241</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.83210829331656</v>
+      </c>
+      <c r="P22">
+        <v>12.15982723842952</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.54145508653373</v>
+        <v>28.81054721389222</v>
       </c>
       <c r="C23">
-        <v>10.993120170921</v>
+        <v>21.49599790202014</v>
       </c>
       <c r="D23">
-        <v>9.841533719219468</v>
+        <v>9.379530652255319</v>
       </c>
       <c r="E23">
-        <v>7.60020027270382</v>
+        <v>9.057004377899981</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.148248474035114</v>
+        <v>54.16162777404858</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.309983147922237</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.415624987781086</v>
       </c>
       <c r="J23">
-        <v>4.439280413902263</v>
+        <v>14.95469443108913</v>
       </c>
       <c r="K23">
-        <v>22.90028430774195</v>
+        <v>22.56066413447538</v>
       </c>
       <c r="L23">
-        <v>9.770275854510343</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>26.21937153258751</v>
+        <v>7.846887032838189</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>16.57590992432489</v>
+      </c>
+      <c r="P23">
+        <v>12.23637655789481</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.84511453562009</v>
+        <v>26.62971776758503</v>
       </c>
       <c r="C24">
-        <v>10.09703688752826</v>
+        <v>19.8663405223784</v>
       </c>
       <c r="D24">
-        <v>9.45155810775675</v>
+        <v>8.641762321603231</v>
       </c>
       <c r="E24">
-        <v>7.528010552019163</v>
+        <v>8.635671811799019</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.170369542619635</v>
+        <v>50.7888843282055</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.877149154917204</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.026297001450482</v>
       </c>
       <c r="J24">
-        <v>4.466640831524547</v>
+        <v>14.36419986082543</v>
       </c>
       <c r="K24">
-        <v>21.59465605390915</v>
+        <v>21.79446893376074</v>
       </c>
       <c r="L24">
-        <v>9.499288286273524</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>25.69125993225333</v>
+        <v>7.511336488771919</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.56113561167592</v>
+      </c>
+      <c r="P24">
+        <v>12.51930824649231</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.0182466938211</v>
+        <v>24.11657066181146</v>
       </c>
       <c r="C25">
-        <v>9.174618244134702</v>
+        <v>17.98832071639724</v>
       </c>
       <c r="D25">
-        <v>9.049295670196779</v>
+        <v>7.787526121550929</v>
       </c>
       <c r="E25">
-        <v>7.466669771840959</v>
+        <v>8.171050894587239</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.194361540942646</v>
+        <v>47.00241605160281</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.729771707406096</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.596553661321809</v>
       </c>
       <c r="J25">
-        <v>4.497232273643526</v>
+        <v>13.72718117670593</v>
       </c>
       <c r="K25">
-        <v>20.19718419270846</v>
+        <v>20.97115732064687</v>
       </c>
       <c r="L25">
-        <v>9.23087094744646</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>25.14389356162835</v>
+        <v>7.134896606562664</v>
       </c>
       <c r="O25">
+        <v>14.39694018495968</v>
+      </c>
+      <c r="P25">
+        <v>12.82547831883609</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.20560391451953</v>
+        <v>21.29825202327116</v>
       </c>
       <c r="C2">
-        <v>16.45402637157938</v>
+        <v>16.96559017015586</v>
       </c>
       <c r="D2">
-        <v>7.10686368240517</v>
+        <v>7.108985760116243</v>
       </c>
       <c r="E2">
-        <v>7.820937789789149</v>
+        <v>7.772325605029692</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>44.31307706545392</v>
+        <v>40.58460719249462</v>
       </c>
       <c r="H2">
-        <v>2.103604407806869</v>
+        <v>2.051182402353412</v>
       </c>
       <c r="I2">
-        <v>2.692432320115882</v>
+        <v>2.622451271527041</v>
       </c>
       <c r="J2">
-        <v>13.30483848410635</v>
+        <v>12.9689043915575</v>
       </c>
       <c r="K2">
-        <v>20.46227593531431</v>
+        <v>18.90753381183206</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.62416064538941</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.54240276089304</v>
       </c>
       <c r="N2">
-        <v>6.842410697876285</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>13.50196978722179</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.064219477634</v>
+        <v>6.988258447377637</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.20063155702946</v>
+      </c>
+      <c r="R2">
+        <v>12.81841681658295</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.77712280329514</v>
+        <v>19.95550265932353</v>
       </c>
       <c r="C3">
-        <v>15.36952557908843</v>
+        <v>15.81490971570944</v>
       </c>
       <c r="D3">
-        <v>6.61203603627418</v>
+        <v>6.616259037588796</v>
       </c>
       <c r="E3">
-        <v>7.574587515560864</v>
+        <v>7.550725587986775</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>42.30584780467644</v>
+        <v>38.91101174098449</v>
       </c>
       <c r="H3">
-        <v>2.369279554622455</v>
+        <v>2.288704975225079</v>
       </c>
       <c r="I3">
-        <v>2.931626401163554</v>
+        <v>2.827897746521042</v>
       </c>
       <c r="J3">
-        <v>12.99516787632315</v>
+        <v>12.68811097671434</v>
       </c>
       <c r="K3">
-        <v>20.06796354334003</v>
+        <v>18.65248411205994</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.57193403399399</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.19878652871574</v>
       </c>
       <c r="N3">
-        <v>6.639238971993755</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.85095290564069</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.22118038315841</v>
+        <v>6.792259017080942</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.57712269272346</v>
+      </c>
+      <c r="R3">
+        <v>12.97200869213581</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.84938207302916</v>
+        <v>19.08160241644034</v>
       </c>
       <c r="C4">
-        <v>14.67033184823284</v>
+        <v>15.07165374371502</v>
       </c>
       <c r="D4">
-        <v>6.292021596682114</v>
+        <v>6.296847509935229</v>
       </c>
       <c r="E4">
-        <v>7.419268731560945</v>
+        <v>7.410980585287136</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>41.03980146717774</v>
+        <v>37.8598966421084</v>
       </c>
       <c r="H4">
-        <v>2.53760712587269</v>
+        <v>2.439391632836876</v>
       </c>
       <c r="I4">
-        <v>3.084020961542213</v>
+        <v>2.959309135059874</v>
       </c>
       <c r="J4">
-        <v>12.8054589036898</v>
+        <v>12.51279535016533</v>
       </c>
       <c r="K4">
-        <v>19.82593738674411</v>
+        <v>18.49572209453026</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.53440978806027</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.00517359791805</v>
       </c>
       <c r="N4">
-        <v>6.511329247541823</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>12.43504838520393</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.31823357551121</v>
+        <v>6.669199944107398</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.17825476848565</v>
+      </c>
+      <c r="R4">
+        <v>13.06735208674722</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.45138139646833</v>
+        <v>18.70610702168186</v>
       </c>
       <c r="C5">
-        <v>14.38231978216623</v>
+        <v>14.76478513842251</v>
       </c>
       <c r="D5">
-        <v>6.177693285182584</v>
+        <v>6.181746769664369</v>
       </c>
       <c r="E5">
-        <v>7.354597047758829</v>
+        <v>7.352849905162952</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>40.49121204393445</v>
+        <v>37.40243823319732</v>
       </c>
       <c r="H5">
-        <v>2.608027430870611</v>
+        <v>2.502484356296236</v>
       </c>
       <c r="I5">
-        <v>3.15052515115156</v>
+        <v>3.017641029155497</v>
       </c>
       <c r="J5">
-        <v>12.72337658810521</v>
+        <v>12.43599731160613</v>
       </c>
       <c r="K5">
-        <v>19.71725029856776</v>
+        <v>18.42249430967819</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.51000878677394</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.92450537527857</v>
       </c>
       <c r="N5">
-        <v>6.458813486032577</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>12.25941971827238</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.35666159504349</v>
+        <v>6.618771964648934</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.00969253034814</v>
+      </c>
+      <c r="R5">
+        <v>13.10563966040419</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.3756540192195</v>
+        <v>18.63448710782918</v>
       </c>
       <c r="C6">
-        <v>14.34051647372028</v>
+        <v>14.71974527977873</v>
       </c>
       <c r="D6">
-        <v>6.158532999781758</v>
+        <v>6.162623565899782</v>
       </c>
       <c r="E6">
-        <v>7.343401949498045</v>
+        <v>7.34285739594146</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>40.36930838176858</v>
+        <v>37.29721225679877</v>
       </c>
       <c r="H6">
-        <v>2.62039560975019</v>
+        <v>2.513577410189328</v>
       </c>
       <c r="I6">
-        <v>3.165493311110658</v>
+        <v>3.031846580636008</v>
       </c>
       <c r="J6">
-        <v>12.70370961804964</v>
+        <v>12.41748084514832</v>
       </c>
       <c r="K6">
-        <v>19.68681212394652</v>
+        <v>18.3989454048684</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.49644481986927</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.90355214176557</v>
       </c>
       <c r="N6">
-        <v>6.450503234229775</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>12.22728829031912</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.3614585287872</v>
+        <v>6.610807649409294</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.9788538128168</v>
+      </c>
+      <c r="R6">
+        <v>13.11099341951279</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.82037584610004</v>
+        <v>19.04327087206344</v>
       </c>
       <c r="C7">
-        <v>14.68388433993039</v>
+        <v>15.0671268635153</v>
       </c>
       <c r="D7">
-        <v>6.2904084862465</v>
+        <v>6.294872563317449</v>
       </c>
       <c r="E7">
-        <v>7.417353367253654</v>
+        <v>7.407690105175052</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>40.9508019913536</v>
+        <v>37.85046933170169</v>
       </c>
       <c r="H7">
-        <v>2.540151108361884</v>
+        <v>2.442527676386228</v>
       </c>
       <c r="I7">
-        <v>3.09515263513735</v>
+        <v>2.972784485688858</v>
       </c>
       <c r="J7">
-        <v>12.78795430597964</v>
+        <v>12.43477035542622</v>
       </c>
       <c r="K7">
-        <v>19.79081917174039</v>
+        <v>18.44928621437717</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.49689233841836</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.97219548956446</v>
       </c>
       <c r="N7">
-        <v>6.511861955800893</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>12.42533783895989</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.31444941765877</v>
+        <v>6.668976202506517</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.16457534241195</v>
+      </c>
+      <c r="R7">
+        <v>13.06394988453465</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.69455839573201</v>
+        <v>20.78522772299425</v>
       </c>
       <c r="C8">
-        <v>16.10817829491688</v>
+        <v>16.54330662196667</v>
       </c>
       <c r="D8">
-        <v>6.939531095016278</v>
+        <v>6.942166380535395</v>
       </c>
       <c r="E8">
-        <v>7.735520779401242</v>
+        <v>7.690140372739621</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>43.52602159662865</v>
+        <v>40.15128399440842</v>
       </c>
       <c r="H8">
-        <v>2.196179234393822</v>
+        <v>2.13654111686708</v>
       </c>
       <c r="I8">
-        <v>2.7872494908838</v>
+        <v>2.710465565755098</v>
       </c>
       <c r="J8">
-        <v>13.17691915339744</v>
+        <v>12.65455723128784</v>
       </c>
       <c r="K8">
-        <v>20.28282842452385</v>
+        <v>18.73258973472632</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.53882152023959</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.35617162379994</v>
       </c>
       <c r="N8">
-        <v>6.774646220989276</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>13.27173390806409</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.11277518875988</v>
+        <v>6.920457754956217</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.96650490811093</v>
+      </c>
+      <c r="R8">
+        <v>12.86449923328609</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.0049335089258</v>
+        <v>23.91710100765764</v>
       </c>
       <c r="C9">
-        <v>18.61211011187582</v>
+        <v>19.18659612273921</v>
       </c>
       <c r="D9">
-        <v>8.083489146553578</v>
+        <v>8.079668518344318</v>
       </c>
       <c r="E9">
-        <v>8.330701459973652</v>
+        <v>8.223659418728193</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>48.42319950793046</v>
+        <v>44.31164652598832</v>
       </c>
       <c r="H9">
-        <v>1.562358309515213</v>
+        <v>1.568330853926603</v>
       </c>
       <c r="I9">
-        <v>2.738555482950099</v>
+        <v>2.74215741499681</v>
       </c>
       <c r="J9">
-        <v>13.96876969303702</v>
+        <v>13.31193995736009</v>
       </c>
       <c r="K9">
-        <v>21.30439598686266</v>
+        <v>19.39355605367667</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.66351793768856</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.31300340835103</v>
       </c>
       <c r="N9">
-        <v>7.261470578881295</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>14.80961118601754</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.72899210040576</v>
+        <v>7.391224816396205</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.43425141563442</v>
+      </c>
+      <c r="R9">
+        <v>12.48932583900601</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.18874948650438</v>
+        <v>25.90926922000176</v>
       </c>
       <c r="C10">
-        <v>20.33007542305025</v>
+        <v>20.90552121871513</v>
       </c>
       <c r="D10">
-        <v>8.845865689341235</v>
+        <v>8.835757655502704</v>
       </c>
       <c r="E10">
-        <v>8.776185295397703</v>
+        <v>8.621801961593993</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>51.46450331706244</v>
+        <v>47.26737630046831</v>
       </c>
       <c r="H10">
-        <v>1.987002342962577</v>
+        <v>1.92677690778977</v>
       </c>
       <c r="I10">
-        <v>3.12263237886188</v>
+        <v>3.068344955016018</v>
       </c>
       <c r="J10">
-        <v>14.46947937416786</v>
+        <v>13.391280977291</v>
       </c>
       <c r="K10">
-        <v>21.89750259681214</v>
+        <v>19.6722746555853</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.58123971201976</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.91222032590542</v>
       </c>
       <c r="N10">
-        <v>7.501819642022259</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>15.74170429143742</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.4295224627545</v>
+        <v>7.615953516113851</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.2993950185571</v>
+      </c>
+      <c r="R10">
+        <v>12.20665966694671</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.51600554342211</v>
+        <v>26.16706013201273</v>
       </c>
       <c r="C11">
-        <v>21.32546539021038</v>
+        <v>21.71046325865709</v>
       </c>
       <c r="D11">
-        <v>9.169264616406476</v>
+        <v>9.156445850944833</v>
       </c>
       <c r="E11">
-        <v>9.342353888754484</v>
+        <v>9.187038741106873</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>49.91079191099801</v>
+        <v>46.64903455097161</v>
       </c>
       <c r="H11">
-        <v>2.896854879032482</v>
+        <v>2.842824991426209</v>
       </c>
       <c r="I11">
-        <v>3.231970727172063</v>
+        <v>3.159234890892953</v>
       </c>
       <c r="J11">
-        <v>14.05791158013041</v>
+        <v>12.35814492551514</v>
       </c>
       <c r="K11">
-        <v>20.9248215545196</v>
+        <v>18.63778677416661</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.71330346053315</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.26218427667397</v>
       </c>
       <c r="N11">
-        <v>6.789621963372775</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>15.21601546421075</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.17039922570711</v>
+        <v>6.873312031816861</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.74418273638309</v>
+      </c>
+      <c r="R11">
+        <v>12.05866528486375</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.37107143007401</v>
+        <v>26.03206772374064</v>
       </c>
       <c r="C12">
-        <v>21.79684378988363</v>
+        <v>22.06667548891187</v>
       </c>
       <c r="D12">
-        <v>9.286675224956941</v>
+        <v>9.273244863816524</v>
       </c>
       <c r="E12">
-        <v>9.91795646477982</v>
+        <v>9.764553965639982</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>48.0357844932479</v>
+        <v>45.3611674583864</v>
       </c>
       <c r="H12">
-        <v>4.162259230268896</v>
+        <v>4.123914604013372</v>
       </c>
       <c r="I12">
-        <v>3.245615038750409</v>
+        <v>3.169180430854242</v>
       </c>
       <c r="J12">
-        <v>13.61856998354065</v>
+        <v>11.69069762683957</v>
       </c>
       <c r="K12">
-        <v>20.01599875602519</v>
+        <v>17.7932920843211</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.07452803013313</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.64413415536458</v>
       </c>
       <c r="N12">
-        <v>6.209249571741349</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.57763987516419</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.05733781805905</v>
+        <v>6.270003951013167</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.10776913145105</v>
+      </c>
+      <c r="R12">
+        <v>12.03538257885379</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.82162096073213</v>
+        <v>25.57657128567801</v>
       </c>
       <c r="C13">
-        <v>21.92807990288318</v>
+        <v>22.16435849726521</v>
       </c>
       <c r="D13">
-        <v>9.255852079729873</v>
+        <v>9.243692454259334</v>
       </c>
       <c r="E13">
-        <v>10.50999376510634</v>
+        <v>10.37900735598166</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.63637933657386</v>
+        <v>43.17237298764809</v>
       </c>
       <c r="H13">
-        <v>5.482568804084619</v>
+        <v>5.457997958920425</v>
       </c>
       <c r="I13">
-        <v>3.189203168286184</v>
+        <v>3.12358064497923</v>
       </c>
       <c r="J13">
-        <v>13.10024572914397</v>
+        <v>11.3520291335533</v>
       </c>
       <c r="K13">
-        <v>19.04336168514848</v>
+        <v>17.02189590374834</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.54780662057279</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.99829214895629</v>
       </c>
       <c r="N13">
-        <v>5.71311947013494</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.78856600914151</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.04201979111089</v>
+        <v>5.757054977142907</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.35414471780942</v>
+      </c>
+      <c r="R13">
+        <v>12.08891368804436</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.2407016397285</v>
+        <v>25.10012775900276</v>
       </c>
       <c r="C14">
-        <v>21.87293100020058</v>
+        <v>22.12090992296083</v>
       </c>
       <c r="D14">
-        <v>9.166948494435074</v>
+        <v>9.156488965770341</v>
       </c>
       <c r="E14">
-        <v>10.94448868547976</v>
+        <v>10.84164933569957</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>43.66982654968227</v>
+        <v>41.19234714017689</v>
       </c>
       <c r="H14">
-        <v>6.450093236116555</v>
+        <v>6.462651067195324</v>
       </c>
       <c r="I14">
-        <v>3.119218268367865</v>
+        <v>3.067956234425735</v>
       </c>
       <c r="J14">
-        <v>12.69474981251697</v>
+        <v>11.24472883273515</v>
       </c>
       <c r="K14">
-        <v>18.32455834786608</v>
+        <v>16.50380819507992</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.21812903108524</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.52605041832568</v>
       </c>
       <c r="N14">
-        <v>5.431893479032509</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.15741095462361</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.07873647484709</v>
+        <v>5.466821759713913</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.76268636978403</v>
+      </c>
+      <c r="R14">
+        <v>12.15902363273805</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.0031077727396</v>
+        <v>24.90513735105339</v>
       </c>
       <c r="C15">
-        <v>21.79200011993634</v>
+        <v>22.05800632974548</v>
       </c>
       <c r="D15">
-        <v>9.113272307609014</v>
+        <v>9.103608749852564</v>
       </c>
       <c r="E15">
-        <v>11.03237728996117</v>
+        <v>10.94279752034145</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.04977080291748</v>
+        <v>40.50148691996345</v>
       </c>
       <c r="H15">
-        <v>6.690821581554365</v>
+        <v>6.70199812844672</v>
       </c>
       <c r="I15">
-        <v>3.087766527422334</v>
+        <v>3.043656355544403</v>
       </c>
       <c r="J15">
-        <v>12.57441580969811</v>
+        <v>11.2703308880614</v>
       </c>
       <c r="K15">
-        <v>18.12642734463106</v>
+        <v>16.38035830371224</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.14927359736501</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.39709053754467</v>
       </c>
       <c r="N15">
-        <v>5.371826183132704</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>12.96865869503605</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.10331654409219</v>
+        <v>5.40624328157062</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.59005672936684</v>
+      </c>
+      <c r="R15">
+        <v>12.1866984059719</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.16186248493032</v>
+        <v>24.20748898863716</v>
       </c>
       <c r="C16">
-        <v>21.08453174504005</v>
+        <v>21.47598475146112</v>
       </c>
       <c r="D16">
-        <v>8.805250513167813</v>
+        <v>8.798990840381284</v>
       </c>
       <c r="E16">
-        <v>10.7427047996887</v>
+        <v>10.70696511169979</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.04442649945573</v>
+        <v>38.94213778796748</v>
       </c>
       <c r="H16">
-        <v>6.48856566324749</v>
+        <v>6.495310015326989</v>
       </c>
       <c r="I16">
-        <v>2.937270620863065</v>
+        <v>2.922447192933204</v>
       </c>
       <c r="J16">
-        <v>12.4374620358667</v>
+        <v>11.73976180868589</v>
       </c>
       <c r="K16">
-        <v>18.0287108988687</v>
+        <v>16.49043967263588</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.31653895706456</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.33904461391905</v>
       </c>
       <c r="N16">
-        <v>5.355602157990059</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.68935777498044</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.2253792495088</v>
+        <v>5.406461330119009</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.36418937641667</v>
+      </c>
+      <c r="R16">
+        <v>12.26699562222435</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.8273257052086</v>
+        <v>23.91375616102892</v>
       </c>
       <c r="C17">
-        <v>20.56063215256837</v>
+        <v>21.02173989245817</v>
       </c>
       <c r="D17">
-        <v>8.613571741168553</v>
+        <v>8.608840486338483</v>
       </c>
       <c r="E17">
-        <v>10.26565042507237</v>
+        <v>10.24695138398082</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.35997696108109</v>
+        <v>38.93490461785758</v>
       </c>
       <c r="H17">
-        <v>5.751792636237177</v>
+        <v>5.756397150828028</v>
       </c>
       <c r="I17">
-        <v>2.858995537457305</v>
+        <v>2.858159503324551</v>
       </c>
       <c r="J17">
-        <v>12.55300171687543</v>
+        <v>12.08937807581074</v>
       </c>
       <c r="K17">
-        <v>18.33963716903452</v>
+        <v>16.83674263191223</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.61733849350268</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.53292133773351</v>
       </c>
       <c r="N17">
-        <v>5.480149830404921</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.82163073724478</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.29843727267</v>
+        <v>5.547801249846472</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.51092870199471</v>
+      </c>
+      <c r="R17">
+        <v>12.29896003694791</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.92043375058514</v>
+        <v>23.97917349393007</v>
       </c>
       <c r="C18">
-        <v>20.13161079740321</v>
+        <v>20.65052993092122</v>
       </c>
       <c r="D18">
-        <v>8.504085919823682</v>
+        <v>8.499699049543286</v>
       </c>
       <c r="E18">
-        <v>9.635801356241753</v>
+        <v>9.608623156417382</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>43.90361740337638</v>
+        <v>40.17846285885309</v>
       </c>
       <c r="H18">
-        <v>4.488435289232</v>
+        <v>4.493451380646338</v>
       </c>
       <c r="I18">
-        <v>2.833097800262419</v>
+        <v>2.834261248419792</v>
       </c>
       <c r="J18">
-        <v>12.90833971911903</v>
+        <v>12.49775794937794</v>
       </c>
       <c r="K18">
-        <v>19.0627297832197</v>
+        <v>17.47815429667291</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.11111733306752</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.99904983728729</v>
       </c>
       <c r="N18">
-        <v>5.809971630087656</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.32946680242513</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.3563229307088</v>
+        <v>5.896375825528372</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.00877349706155</v>
+      </c>
+      <c r="R18">
+        <v>12.30390615638134</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.31372567530384</v>
+        <v>24.30157310183684</v>
       </c>
       <c r="C19">
-        <v>19.84404974550734</v>
+        <v>20.41778465810326</v>
       </c>
       <c r="D19">
-        <v>8.470073603443035</v>
+        <v>8.465151454889526</v>
       </c>
       <c r="E19">
-        <v>9.050442701856811</v>
+        <v>8.99346762451923</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>46.15990816608184</v>
+        <v>42.12504957714226</v>
       </c>
       <c r="H19">
-        <v>2.970477524777721</v>
+        <v>2.98037340940032</v>
       </c>
       <c r="I19">
-        <v>2.862413433224624</v>
+        <v>2.858734121463379</v>
       </c>
       <c r="J19">
-        <v>13.39907925397951</v>
+        <v>12.94303230454553</v>
       </c>
       <c r="K19">
-        <v>20.0119547902801</v>
+        <v>18.27513599882186</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.70106982324977</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.6175124591344</v>
       </c>
       <c r="N19">
-        <v>6.364812816368945</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>14.08170073926969</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.42185066359008</v>
+        <v>6.469019683800796</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.73603032847686</v>
+      </c>
+      <c r="R19">
+        <v>12.30652416650695</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.57010265344755</v>
+        <v>25.37428242218265</v>
       </c>
       <c r="C20">
-        <v>19.93211465587933</v>
+        <v>20.55558873027791</v>
       </c>
       <c r="D20">
-        <v>8.65029474871131</v>
+        <v>8.642312967963246</v>
       </c>
       <c r="E20">
-        <v>8.658488005911117</v>
+        <v>8.523561242123071</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>50.4531035715725</v>
+        <v>46.06432107850023</v>
       </c>
       <c r="H20">
-        <v>1.870672879585481</v>
+        <v>1.826616627898129</v>
       </c>
       <c r="I20">
-        <v>3.030183484045053</v>
+        <v>2.997751668635725</v>
       </c>
       <c r="J20">
-        <v>14.28901781914559</v>
+        <v>13.52358150528205</v>
       </c>
       <c r="K20">
-        <v>21.63987889881517</v>
+        <v>19.55362615905204</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.57059661266723</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.71616644232905</v>
       </c>
       <c r="N20">
-        <v>7.438509806939321</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>15.47847180980691</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.49602243659046</v>
+        <v>7.558892654550823</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.06757213440579</v>
+      </c>
+      <c r="R20">
+        <v>12.27778191380349</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.29015417841066</v>
+        <v>26.78018958598389</v>
       </c>
       <c r="C21">
-        <v>21.15015747983711</v>
+        <v>21.53614627635661</v>
       </c>
       <c r="D21">
-        <v>9.212960172837764</v>
+        <v>9.197790337586964</v>
       </c>
       <c r="E21">
-        <v>8.958902770219003</v>
+        <v>8.751613962562054</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>53.28044753241127</v>
+        <v>49.92355582937124</v>
       </c>
       <c r="H21">
-        <v>2.208682617841458</v>
+        <v>2.111182632167361</v>
       </c>
       <c r="I21">
-        <v>3.330558998773971</v>
+        <v>3.238589010871546</v>
       </c>
       <c r="J21">
-        <v>14.79327321909555</v>
+        <v>12.66885244233119</v>
       </c>
       <c r="K21">
-        <v>22.33072579818902</v>
+        <v>19.71834268036883</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.4697940048458</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.14841882442524</v>
       </c>
       <c r="N21">
-        <v>7.772501469938732</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>16.33632374869532</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.29522045224596</v>
+        <v>7.872532907364136</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.80204405969407</v>
+      </c>
+      <c r="R21">
+        <v>12.06175267290982</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.35317115173503</v>
+        <v>27.63987320501522</v>
       </c>
       <c r="C22">
-        <v>21.91805575512584</v>
+        <v>22.13655268061959</v>
       </c>
       <c r="D22">
-        <v>9.567245612070456</v>
+        <v>9.546998673764215</v>
       </c>
       <c r="E22">
-        <v>9.166840639159521</v>
+        <v>8.916067482315306</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>55.00116149144071</v>
+        <v>52.39941871236881</v>
       </c>
       <c r="H22">
-        <v>2.421957926175047</v>
+        <v>2.290063908553372</v>
       </c>
       <c r="I22">
-        <v>3.518238628206488</v>
+        <v>3.386440270269516</v>
       </c>
       <c r="J22">
-        <v>15.10324861273437</v>
+        <v>12.04264981881679</v>
       </c>
       <c r="K22">
-        <v>22.74810440022506</v>
+        <v>19.78439539719774</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.37292415655477</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.40328202475562</v>
       </c>
       <c r="N22">
-        <v>7.934202821599241</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.83210829331656</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.15982723842952</v>
+        <v>8.019825098595321</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.21603188967343</v>
+      </c>
+      <c r="R22">
+        <v>11.92096744370032</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.81054721389222</v>
+        <v>27.22445315292322</v>
       </c>
       <c r="C23">
-        <v>21.49599790202014</v>
+        <v>21.83685463551392</v>
       </c>
       <c r="D23">
-        <v>9.379530652255319</v>
+        <v>9.362214865217195</v>
       </c>
       <c r="E23">
-        <v>9.057004377899981</v>
+        <v>8.832207208112891</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>54.16162777404858</v>
+        <v>50.99526435582378</v>
       </c>
       <c r="H23">
-        <v>2.309983147922237</v>
+        <v>2.197764235244588</v>
       </c>
       <c r="I23">
-        <v>3.415624987781086</v>
+        <v>3.30498585839445</v>
       </c>
       <c r="J23">
-        <v>14.95469443108913</v>
+        <v>12.52797300960096</v>
       </c>
       <c r="K23">
-        <v>22.56066413447538</v>
+        <v>19.81574106704112</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.47193437351481</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.32012664932381</v>
       </c>
       <c r="N23">
-        <v>7.846887032838189</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>16.57590992432489</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.23637655789481</v>
+        <v>7.941699389897757</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.01215298280938</v>
+      </c>
+      <c r="R23">
+        <v>11.99839760339631</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.62971776758503</v>
+        <v>25.42707324604784</v>
       </c>
       <c r="C24">
-        <v>19.8663405223784</v>
+        <v>20.49686138070152</v>
       </c>
       <c r="D24">
-        <v>8.641762321603231</v>
+        <v>8.633725564622519</v>
       </c>
       <c r="E24">
-        <v>8.635671811799019</v>
+        <v>8.49612823223887</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>50.7888843282055</v>
+        <v>46.35636823443399</v>
       </c>
       <c r="H24">
-        <v>1.877149154917204</v>
+        <v>1.832374790201578</v>
       </c>
       <c r="I24">
-        <v>3.026297001450482</v>
+        <v>2.990965724696304</v>
       </c>
       <c r="J24">
-        <v>14.36419986082543</v>
+        <v>13.60047296922056</v>
       </c>
       <c r="K24">
-        <v>21.79446893376074</v>
+        <v>19.69104449968783</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.6743958806068</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.81996332933829</v>
       </c>
       <c r="N24">
-        <v>7.511336488771919</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>15.56113561167592</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.51930824649231</v>
+        <v>7.633333645386086</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.14788152387348</v>
+      </c>
+      <c r="R24">
+        <v>12.28875391159713</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.11657066181146</v>
+        <v>23.07110505704821</v>
       </c>
       <c r="C25">
-        <v>17.98832071639724</v>
+        <v>18.54890319335657</v>
       </c>
       <c r="D25">
-        <v>7.787526121550929</v>
+        <v>7.785789233488659</v>
       </c>
       <c r="E25">
-        <v>8.171050894587239</v>
+        <v>8.083343250624107</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>47.00241605160281</v>
+        <v>42.99195562211347</v>
       </c>
       <c r="H25">
-        <v>1.729771707406096</v>
+        <v>1.71953628397974</v>
       </c>
       <c r="I25">
-        <v>2.596553661321809</v>
+        <v>2.624393124114019</v>
       </c>
       <c r="J25">
-        <v>13.72718117670593</v>
+        <v>13.19321749160646</v>
       </c>
       <c r="K25">
-        <v>20.97115732064687</v>
+        <v>19.18200274067449</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.60957500720285</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.01692036184459</v>
       </c>
       <c r="N25">
-        <v>7.134896606562664</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>14.39694018495968</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.82547831883609</v>
+        <v>7.269645443087466</v>
       </c>
       <c r="Q25">
+        <v>14.04639737026626</v>
+      </c>
+      <c r="R25">
+        <v>12.58791591808738</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
